--- a/database/industries/kaghaz/chekapa/product/monthly.xlsx
+++ b/database/industries/kaghaz/chekapa/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8333BE82-0E1C-4A89-B188-2B10985CBEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 2 منتهی به 1397/10</t>
@@ -186,6 +181,12 @@
     <t>ماه 1 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 2 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +449,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -460,7 +461,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -507,6 +508,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -542,6 +560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1374,25 +1409,25 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F11" s="11">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G11" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J11" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -1404,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="11">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="P11" s="11">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="11">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="R11" s="11">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="S11" s="11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T11" s="11">
         <v>0</v>
@@ -1428,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="W11" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" s="11">
         <v>0</v>
       </c>
       <c r="Y11" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <v>0</v>
@@ -1485,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="AP11" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
       <c r="AR11" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
@@ -1514,14 +1549,14 @@
       <c r="AY11" s="11">
         <v>0</v>
       </c>
-      <c r="AZ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="11" t="s">
-        <v>57</v>
+      <c r="AZ11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1533,154 +1568,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>1990</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1910</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1690</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1610</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1650</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1910</v>
+      </c>
+      <c r="K12" s="13">
+        <v>610</v>
+      </c>
+      <c r="L12" s="13">
+        <v>560</v>
+      </c>
+      <c r="M12" s="13">
+        <v>158</v>
+      </c>
+      <c r="N12" s="13">
+        <v>97</v>
+      </c>
+      <c r="O12" s="13">
+        <v>100</v>
+      </c>
+      <c r="P12" s="13">
+        <v>458</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>341</v>
+      </c>
+      <c r="R12" s="13">
+        <v>769</v>
+      </c>
+      <c r="S12" s="13">
+        <v>625</v>
+      </c>
+      <c r="T12" s="13">
+        <v>125</v>
+      </c>
+      <c r="U12" s="13">
+        <v>1100</v>
+      </c>
+      <c r="V12" s="13">
+        <v>4010</v>
+      </c>
+      <c r="W12" s="13">
+        <v>2374</v>
+      </c>
+      <c r="X12" s="13">
+        <v>2010</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>317</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>212</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>109</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>374</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>137</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>1901</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>284</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>331</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>748</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>1202</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>206</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>1204</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>1018</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>841</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>1416</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>2367</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>3756</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>3596</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>1309</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>3061</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>2868</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>1721</v>
+      </c>
+      <c r="AX12" s="13">
         <v>3500</v>
       </c>
-      <c r="F12" s="13">
-        <v>2810</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1990</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1910</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1690</v>
-      </c>
-      <c r="J12" s="13">
-        <v>1610</v>
-      </c>
-      <c r="K12" s="13">
-        <v>1650</v>
-      </c>
-      <c r="L12" s="13">
-        <v>1910</v>
-      </c>
-      <c r="M12" s="13">
-        <v>610</v>
-      </c>
-      <c r="N12" s="13">
-        <v>560</v>
-      </c>
-      <c r="O12" s="13">
-        <v>158</v>
-      </c>
-      <c r="P12" s="13">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>100</v>
-      </c>
-      <c r="R12" s="13">
-        <v>458</v>
-      </c>
-      <c r="S12" s="13">
-        <v>341</v>
-      </c>
-      <c r="T12" s="13">
-        <v>769</v>
-      </c>
-      <c r="U12" s="13">
-        <v>625</v>
-      </c>
-      <c r="V12" s="13">
-        <v>125</v>
-      </c>
-      <c r="W12" s="13">
-        <v>1100</v>
-      </c>
-      <c r="X12" s="13">
-        <v>4010</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>2374</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>2010</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>317</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>212</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>109</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>374</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>137</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>1901</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>284</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>331</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>748</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>1202</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>206</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>1204</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>1018</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>841</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>1416</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>2367</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>3756</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>3596</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>1309</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>3061</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>2868</v>
-      </c>
       <c r="AY12" s="13">
-        <v>3036</v>
+        <v>1640</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3500</v>
+        <v>1199</v>
       </c>
       <c r="BA12" s="13">
-        <v>1640</v>
+        <v>1256</v>
       </c>
       <c r="BB12" s="13">
-        <v>1199</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1692,154 +1727,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1210</v>
+        <v>1510</v>
       </c>
       <c r="F13" s="11">
-        <v>1670</v>
+        <v>1610</v>
       </c>
       <c r="G13" s="11">
-        <v>1510</v>
+        <v>1780</v>
       </c>
       <c r="H13" s="11">
-        <v>1610</v>
+        <v>1850</v>
       </c>
       <c r="I13" s="11">
-        <v>1780</v>
+        <v>1684</v>
       </c>
       <c r="J13" s="11">
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="K13" s="11">
-        <v>1684</v>
+        <v>1450</v>
       </c>
       <c r="L13" s="11">
-        <v>1500</v>
+        <v>1420</v>
       </c>
       <c r="M13" s="11">
-        <v>1450</v>
+        <v>1480</v>
       </c>
       <c r="N13" s="11">
-        <v>1420</v>
+        <v>2232</v>
       </c>
       <c r="O13" s="11">
-        <v>1480</v>
+        <v>1950</v>
       </c>
       <c r="P13" s="11">
-        <v>2232</v>
+        <v>1628</v>
       </c>
       <c r="Q13" s="11">
-        <v>1950</v>
+        <v>1752</v>
       </c>
       <c r="R13" s="11">
-        <v>1628</v>
+        <v>1685</v>
       </c>
       <c r="S13" s="11">
-        <v>1752</v>
+        <v>1824</v>
       </c>
       <c r="T13" s="11">
-        <v>1685</v>
+        <v>1250</v>
       </c>
       <c r="U13" s="11">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="V13" s="11">
-        <v>1250</v>
+        <v>1098</v>
       </c>
       <c r="W13" s="11">
+        <v>1983</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2242</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>2091</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1734</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>2059</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1394</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1917</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1849</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1960</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1946</v>
+      </c>
+      <c r="AG13" s="11">
         <v>2115</v>
       </c>
-      <c r="X13" s="11">
-        <v>1098</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>1983</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>2242</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>2091</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1734</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>2059</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>1394</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>1917</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1849</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>1960</v>
-      </c>
       <c r="AH13" s="11">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="AI13" s="11">
-        <v>2115</v>
+        <v>1007</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1996</v>
+        <v>822</v>
       </c>
       <c r="AK13" s="11">
-        <v>1007</v>
+        <v>1710</v>
       </c>
       <c r="AL13" s="11">
-        <v>822</v>
+        <v>1795</v>
       </c>
       <c r="AM13" s="11">
-        <v>1710</v>
+        <v>1888</v>
       </c>
       <c r="AN13" s="11">
-        <v>1795</v>
+        <v>1650</v>
       </c>
       <c r="AO13" s="11">
-        <v>1888</v>
+        <v>2209</v>
       </c>
       <c r="AP13" s="11">
-        <v>1650</v>
+        <v>2102</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2209</v>
+        <v>2003</v>
       </c>
       <c r="AR13" s="11">
-        <v>2102</v>
+        <v>2137</v>
       </c>
       <c r="AS13" s="11">
-        <v>2003</v>
+        <v>2071</v>
       </c>
       <c r="AT13" s="11">
-        <v>2137</v>
+        <v>1905</v>
       </c>
       <c r="AU13" s="11">
-        <v>2071</v>
+        <v>2511</v>
       </c>
       <c r="AV13" s="11">
-        <v>1905</v>
+        <v>2350</v>
       </c>
       <c r="AW13" s="11">
-        <v>2511</v>
+        <v>1999</v>
       </c>
       <c r="AX13" s="11">
-        <v>2350</v>
+        <v>1763</v>
       </c>
       <c r="AY13" s="11">
-        <v>1999</v>
+        <v>1637</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1763</v>
+        <v>1694</v>
       </c>
       <c r="BA13" s="11">
-        <v>1637</v>
+        <v>1705</v>
       </c>
       <c r="BB13" s="11">
-        <v>1694</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1851,154 +1886,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>790</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="13">
-        <v>950</v>
+        <v>1890</v>
       </c>
       <c r="G14" s="13">
-        <v>1920</v>
+        <v>1510</v>
       </c>
       <c r="H14" s="13">
-        <v>1890</v>
+        <v>1720</v>
       </c>
       <c r="I14" s="13">
-        <v>1510</v>
+        <v>1642</v>
       </c>
       <c r="J14" s="13">
-        <v>1720</v>
+        <v>1750</v>
       </c>
       <c r="K14" s="13">
-        <v>1642</v>
+        <v>2920</v>
       </c>
       <c r="L14" s="13">
-        <v>1750</v>
+        <v>2790</v>
       </c>
       <c r="M14" s="13">
-        <v>2920</v>
+        <v>3125</v>
       </c>
       <c r="N14" s="13">
-        <v>2790</v>
+        <v>2474</v>
       </c>
       <c r="O14" s="13">
-        <v>3125</v>
+        <v>2510</v>
       </c>
       <c r="P14" s="13">
-        <v>2474</v>
+        <v>2462</v>
       </c>
       <c r="Q14" s="13">
-        <v>2510</v>
+        <v>2680</v>
       </c>
       <c r="R14" s="13">
-        <v>2462</v>
+        <v>2314</v>
       </c>
       <c r="S14" s="13">
-        <v>2680</v>
+        <v>1825</v>
       </c>
       <c r="T14" s="13">
-        <v>2314</v>
+        <v>1270</v>
       </c>
       <c r="U14" s="13">
-        <v>1825</v>
+        <v>1568</v>
       </c>
       <c r="V14" s="13">
-        <v>1270</v>
+        <v>0</v>
       </c>
       <c r="W14" s="13">
-        <v>1568</v>
+        <v>1446</v>
       </c>
       <c r="X14" s="13">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="Y14" s="13">
-        <v>1446</v>
+        <v>3082</v>
       </c>
       <c r="Z14" s="13">
-        <v>1232</v>
+        <v>3346</v>
       </c>
       <c r="AA14" s="13">
-        <v>3082</v>
+        <v>3311</v>
       </c>
       <c r="AB14" s="13">
-        <v>3346</v>
+        <v>3287</v>
       </c>
       <c r="AC14" s="13">
-        <v>3311</v>
+        <v>3780</v>
       </c>
       <c r="AD14" s="13">
-        <v>3287</v>
+        <v>3030</v>
       </c>
       <c r="AE14" s="13">
-        <v>3780</v>
+        <v>3146</v>
       </c>
       <c r="AF14" s="13">
-        <v>3030</v>
+        <v>1918</v>
       </c>
       <c r="AG14" s="13">
-        <v>3146</v>
+        <v>2115</v>
       </c>
       <c r="AH14" s="13">
-        <v>1918</v>
+        <v>3342</v>
       </c>
       <c r="AI14" s="13">
-        <v>2115</v>
+        <v>2136</v>
       </c>
       <c r="AJ14" s="13">
-        <v>3342</v>
+        <v>2021</v>
       </c>
       <c r="AK14" s="13">
-        <v>2136</v>
+        <v>2157</v>
       </c>
       <c r="AL14" s="13">
-        <v>2021</v>
+        <v>2673</v>
       </c>
       <c r="AM14" s="13">
-        <v>2157</v>
+        <v>2925</v>
       </c>
       <c r="AN14" s="13">
-        <v>2673</v>
+        <v>1553</v>
       </c>
       <c r="AO14" s="13">
-        <v>2925</v>
+        <v>1966</v>
       </c>
       <c r="AP14" s="13">
-        <v>1553</v>
+        <v>1055</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1966</v>
+        <v>80</v>
       </c>
       <c r="AR14" s="13">
-        <v>1055</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="13">
-        <v>80</v>
+        <v>730</v>
       </c>
       <c r="AT14" s="13">
-        <v>1</v>
+        <v>1743</v>
       </c>
       <c r="AU14" s="13">
-        <v>730</v>
+        <v>389</v>
       </c>
       <c r="AV14" s="13">
-        <v>1743</v>
+        <v>521</v>
       </c>
       <c r="AW14" s="13">
-        <v>389</v>
+        <v>281</v>
       </c>
       <c r="AX14" s="13">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="13">
-        <v>295</v>
+        <v>852</v>
       </c>
       <c r="AZ14" s="13">
-        <v>0</v>
+        <v>2840</v>
       </c>
       <c r="BA14" s="13">
-        <v>852</v>
+        <v>1778</v>
       </c>
       <c r="BB14" s="13">
-        <v>2840</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2087,77 +2122,77 @@
       <c r="AD15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>57</v>
+      <c r="AE15" s="11">
+        <v>848</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1309</v>
       </c>
       <c r="AG15" s="11">
-        <v>848</v>
+        <v>47</v>
       </c>
       <c r="AH15" s="11">
-        <v>1309</v>
+        <v>3</v>
       </c>
       <c r="AI15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="AK15" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AL15" s="11">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AM15" s="11">
-        <v>15</v>
+        <v>1211</v>
       </c>
       <c r="AN15" s="11">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="AO15" s="11">
-        <v>1211</v>
+        <v>395</v>
       </c>
       <c r="AP15" s="11">
-        <v>246</v>
+        <v>1112</v>
       </c>
       <c r="AQ15" s="11">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="AR15" s="11">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="AT15" s="11">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="AU15" s="11">
-        <v>275</v>
+        <v>972</v>
       </c>
       <c r="AV15" s="11">
-        <v>991</v>
+        <v>208</v>
       </c>
       <c r="AW15" s="11">
-        <v>972</v>
+        <v>2099</v>
       </c>
       <c r="AX15" s="11">
-        <v>208</v>
+        <v>1161</v>
       </c>
       <c r="AY15" s="11">
-        <v>2082</v>
+        <v>1149</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1161</v>
+        <v>44</v>
       </c>
       <c r="BA15" s="11">
-        <v>1149</v>
+        <v>233</v>
       </c>
       <c r="BB15" s="11">
-        <v>44</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2189,32 +2224,32 @@
       <c r="K16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>57</v>
+      <c r="L16" s="13">
+        <v>100</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
       </c>
       <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="13">
         <v>100</v>
       </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>57</v>
+      <c r="S16" s="13">
+        <v>0</v>
       </c>
       <c r="T16" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U16" s="13">
         <v>0</v>
@@ -2235,16 +2270,16 @@
         <v>0</v>
       </c>
       <c r="AA16" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB16" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC16" s="13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="13">
         <v>0</v>
@@ -2309,11 +2344,11 @@
       <c r="AY16" s="13">
         <v>0</v>
       </c>
-      <c r="AZ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>0</v>
+      <c r="AZ16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB16" s="13" t="s">
         <v>57</v>
@@ -2453,11 +2488,11 @@
       <c r="AA18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>57</v>
+      <c r="AB18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>0</v>
       </c>
       <c r="AD18" s="11">
         <v>0</v>
@@ -2468,29 +2503,29 @@
       <c r="AF18" s="11">
         <v>0</v>
       </c>
-      <c r="AG18" s="11">
-        <v>0</v>
+      <c r="AG18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH18" s="11">
         <v>0</v>
       </c>
-      <c r="AI18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>57</v>
+      <c r="AI18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>0</v>
       </c>
       <c r="AM18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN18" s="11">
-        <v>0</v>
+      <c r="AN18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO18" s="11" t="s">
         <v>57</v>
@@ -2610,11 +2645,11 @@
       <c r="AA19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC19" s="15" t="s">
-        <v>57</v>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
       </c>
       <c r="AD19" s="15">
         <v>0</v>
@@ -2699,154 +2734,154 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>5500</v>
+        <v>5450</v>
       </c>
       <c r="F20" s="17">
-        <v>5570</v>
+        <v>5480</v>
       </c>
       <c r="G20" s="17">
-        <v>5450</v>
+        <v>4980</v>
       </c>
       <c r="H20" s="17">
-        <v>5480</v>
+        <v>5195</v>
       </c>
       <c r="I20" s="17">
+        <v>5231</v>
+      </c>
+      <c r="J20" s="17">
+        <v>5160</v>
+      </c>
+      <c r="K20" s="17">
         <v>4980</v>
       </c>
-      <c r="J20" s="17">
-        <v>5195</v>
-      </c>
-      <c r="K20" s="17">
-        <v>5231</v>
-      </c>
       <c r="L20" s="17">
-        <v>5160</v>
+        <v>4870</v>
       </c>
       <c r="M20" s="17">
-        <v>4980</v>
+        <v>4763</v>
       </c>
       <c r="N20" s="17">
-        <v>4870</v>
+        <v>4803</v>
       </c>
       <c r="O20" s="17">
-        <v>4763</v>
+        <v>4970</v>
       </c>
       <c r="P20" s="17">
-        <v>4803</v>
+        <v>4869</v>
       </c>
       <c r="Q20" s="17">
-        <v>4970</v>
+        <v>4893</v>
       </c>
       <c r="R20" s="17">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="S20" s="17">
-        <v>4893</v>
+        <v>4274</v>
       </c>
       <c r="T20" s="17">
-        <v>4868</v>
+        <v>2645</v>
       </c>
       <c r="U20" s="17">
-        <v>4274</v>
+        <v>4783</v>
       </c>
       <c r="V20" s="17">
-        <v>2645</v>
+        <v>5108</v>
       </c>
       <c r="W20" s="17">
-        <v>4783</v>
+        <v>5806</v>
       </c>
       <c r="X20" s="17">
-        <v>5108</v>
+        <v>5484</v>
       </c>
       <c r="Y20" s="17">
+        <v>5490</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>5080</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>5882</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>4881</v>
+      </c>
+      <c r="AC20" s="17">
         <v>5806</v>
       </c>
-      <c r="Z20" s="17">
-        <v>5484</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>5490</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>5080</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>5882</v>
-      </c>
       <c r="AD20" s="17">
-        <v>4881</v>
+        <v>5253</v>
       </c>
       <c r="AE20" s="17">
-        <v>5806</v>
+        <v>6091</v>
       </c>
       <c r="AF20" s="17">
-        <v>5253</v>
+        <v>5173</v>
       </c>
       <c r="AG20" s="17">
-        <v>6091</v>
+        <v>6178</v>
       </c>
       <c r="AH20" s="17">
-        <v>5173</v>
+        <v>5625</v>
       </c>
       <c r="AI20" s="17">
-        <v>6178</v>
+        <v>3520</v>
       </c>
       <c r="AJ20" s="17">
-        <v>5625</v>
+        <v>3903</v>
       </c>
       <c r="AK20" s="17">
-        <v>3520</v>
+        <v>5084</v>
       </c>
       <c r="AL20" s="17">
-        <v>3903</v>
+        <v>4973</v>
       </c>
       <c r="AM20" s="17">
-        <v>5084</v>
+        <v>7228</v>
       </c>
       <c r="AN20" s="17">
-        <v>4973</v>
+        <v>4467</v>
       </c>
       <c r="AO20" s="17">
-        <v>7228</v>
+        <v>5411</v>
       </c>
       <c r="AP20" s="17">
-        <v>4467</v>
+        <v>5703</v>
       </c>
       <c r="AQ20" s="17">
-        <v>5411</v>
+        <v>4823</v>
       </c>
       <c r="AR20" s="17">
-        <v>5703</v>
+        <v>5894</v>
       </c>
       <c r="AS20" s="17">
-        <v>4805</v>
+        <v>6672</v>
       </c>
       <c r="AT20" s="17">
-        <v>5894</v>
+        <v>5948</v>
       </c>
       <c r="AU20" s="17">
-        <v>6672</v>
+        <v>6933</v>
       </c>
       <c r="AV20" s="17">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="AW20" s="17">
-        <v>6933</v>
+        <v>6100</v>
       </c>
       <c r="AX20" s="17">
-        <v>5947</v>
+        <v>6424</v>
       </c>
       <c r="AY20" s="17">
-        <v>7412</v>
+        <v>5278</v>
       </c>
       <c r="AZ20" s="17">
-        <v>6424</v>
+        <v>5777</v>
       </c>
       <c r="BA20" s="17">
-        <v>5278</v>
+        <v>4972</v>
       </c>
       <c r="BB20" s="17">
-        <v>5777</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
@@ -3292,82 +3327,82 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="F27" s="11">
-        <v>589</v>
+        <v>62</v>
       </c>
       <c r="G27" s="11">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H27" s="11">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I27" s="11">
+        <v>253</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>2</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>344</v>
+      </c>
+      <c r="P27" s="11">
+        <v>385</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>115</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>8</v>
+      </c>
+      <c r="X27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11">
         <v>5</v>
       </c>
-      <c r="J27" s="11">
-        <v>25</v>
-      </c>
-      <c r="K27" s="11">
-        <v>253</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>2</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>344</v>
-      </c>
-      <c r="R27" s="11">
-        <v>385</v>
-      </c>
-      <c r="S27" s="11">
-        <v>115</v>
-      </c>
-      <c r="T27" s="11">
-        <v>0</v>
-      </c>
-      <c r="U27" s="11">
-        <v>0</v>
-      </c>
-      <c r="V27" s="11">
-        <v>0</v>
-      </c>
-      <c r="W27" s="11">
-        <v>0</v>
-      </c>
-      <c r="X27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="11">
-        <v>0</v>
-      </c>
       <c r="AC27" s="11">
         <v>0</v>
       </c>
       <c r="AD27" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="11">
         <v>0</v>
@@ -3394,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="AM27" s="11">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AN27" s="11">
         <v>0</v>
       </c>
       <c r="AO27" s="11">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ27" s="11">
         <v>0</v>
       </c>
       <c r="AR27" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="11">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="11">
         <v>0</v>
@@ -3432,14 +3467,14 @@
       <c r="AY27" s="11">
         <v>0</v>
       </c>
-      <c r="AZ27" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="11" t="s">
-        <v>57</v>
+      <c r="AZ27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB27" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
@@ -3451,154 +3486,154 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>2775</v>
+        <v>1306</v>
       </c>
       <c r="F28" s="13">
-        <v>1893</v>
+        <v>1968</v>
       </c>
       <c r="G28" s="13">
-        <v>1306</v>
+        <v>2068</v>
       </c>
       <c r="H28" s="13">
-        <v>1968</v>
+        <v>1380</v>
       </c>
       <c r="I28" s="13">
-        <v>2068</v>
+        <v>2049</v>
       </c>
       <c r="J28" s="13">
-        <v>1380</v>
+        <v>2208</v>
       </c>
       <c r="K28" s="13">
-        <v>2049</v>
+        <v>982</v>
       </c>
       <c r="L28" s="13">
-        <v>2208</v>
+        <v>524</v>
       </c>
       <c r="M28" s="13">
-        <v>982</v>
+        <v>463</v>
       </c>
       <c r="N28" s="13">
-        <v>524</v>
+        <v>320</v>
       </c>
       <c r="O28" s="13">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="P28" s="13">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="Q28" s="13">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="R28" s="13">
-        <v>346</v>
+        <v>1122</v>
       </c>
       <c r="S28" s="13">
-        <v>354</v>
+        <v>596</v>
       </c>
       <c r="T28" s="13">
-        <v>1122</v>
+        <v>478</v>
       </c>
       <c r="U28" s="13">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="V28" s="13">
-        <v>478</v>
+        <v>1612</v>
       </c>
       <c r="W28" s="13">
-        <v>670</v>
+        <v>1074</v>
       </c>
       <c r="X28" s="13">
-        <v>1612</v>
+        <v>1519</v>
       </c>
       <c r="Y28" s="13">
-        <v>1074</v>
+        <v>1364</v>
       </c>
       <c r="Z28" s="13">
-        <v>1519</v>
+        <v>1662</v>
       </c>
       <c r="AA28" s="13">
-        <v>1364</v>
+        <v>605</v>
       </c>
       <c r="AB28" s="13">
-        <v>1662</v>
+        <v>49</v>
       </c>
       <c r="AC28" s="13">
-        <v>605</v>
+        <v>92</v>
       </c>
       <c r="AD28" s="13">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="AE28" s="13">
-        <v>92</v>
+        <v>570</v>
       </c>
       <c r="AF28" s="13">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="13">
-        <v>570</v>
+        <v>774</v>
       </c>
       <c r="AH28" s="13">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="AI28" s="13">
-        <v>774</v>
+        <v>465</v>
       </c>
       <c r="AJ28" s="13">
-        <v>615</v>
+        <v>1477</v>
       </c>
       <c r="AK28" s="13">
-        <v>465</v>
+        <v>704</v>
       </c>
       <c r="AL28" s="13">
-        <v>1477</v>
+        <v>682</v>
       </c>
       <c r="AM28" s="13">
-        <v>704</v>
+        <v>1005</v>
       </c>
       <c r="AN28" s="13">
-        <v>682</v>
+        <v>906</v>
       </c>
       <c r="AO28" s="13">
-        <v>1005</v>
+        <v>750</v>
       </c>
       <c r="AP28" s="13">
-        <v>906</v>
+        <v>1547</v>
       </c>
       <c r="AQ28" s="13">
-        <v>750</v>
+        <v>2018</v>
       </c>
       <c r="AR28" s="13">
-        <v>1547</v>
+        <v>3857</v>
       </c>
       <c r="AS28" s="13">
-        <v>2018</v>
+        <v>3847</v>
       </c>
       <c r="AT28" s="13">
-        <v>3857</v>
+        <v>1263</v>
       </c>
       <c r="AU28" s="13">
-        <v>3847</v>
+        <v>3017</v>
       </c>
       <c r="AV28" s="13">
-        <v>1263</v>
+        <v>2873</v>
       </c>
       <c r="AW28" s="13">
-        <v>3017</v>
+        <v>2434</v>
       </c>
       <c r="AX28" s="13">
-        <v>2873</v>
+        <v>2188</v>
       </c>
       <c r="AY28" s="13">
-        <v>2434</v>
+        <v>1722</v>
       </c>
       <c r="AZ28" s="13">
-        <v>2188</v>
+        <v>1192</v>
       </c>
       <c r="BA28" s="13">
-        <v>1722</v>
+        <v>2003</v>
       </c>
       <c r="BB28" s="13">
-        <v>1192</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
@@ -3610,154 +3645,154 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>1396</v>
+        <v>1994</v>
       </c>
       <c r="F29" s="11">
-        <v>2148</v>
+        <v>1746</v>
       </c>
       <c r="G29" s="11">
-        <v>1994</v>
+        <v>1722</v>
       </c>
       <c r="H29" s="11">
-        <v>1746</v>
+        <v>1429</v>
       </c>
       <c r="I29" s="11">
-        <v>1722</v>
+        <v>1631</v>
       </c>
       <c r="J29" s="11">
-        <v>1429</v>
+        <v>1300</v>
       </c>
       <c r="K29" s="11">
-        <v>1631</v>
+        <v>997</v>
       </c>
       <c r="L29" s="11">
-        <v>1300</v>
+        <v>925</v>
       </c>
       <c r="M29" s="11">
-        <v>997</v>
+        <v>1491</v>
       </c>
       <c r="N29" s="11">
-        <v>925</v>
+        <v>1866</v>
       </c>
       <c r="O29" s="11">
-        <v>1491</v>
+        <v>1860</v>
       </c>
       <c r="P29" s="11">
-        <v>1866</v>
+        <v>1925</v>
       </c>
       <c r="Q29" s="11">
-        <v>1860</v>
+        <v>2142</v>
       </c>
       <c r="R29" s="11">
-        <v>1925</v>
+        <v>2135</v>
       </c>
       <c r="S29" s="11">
-        <v>2142</v>
+        <v>1978</v>
       </c>
       <c r="T29" s="11">
-        <v>2135</v>
+        <v>1046</v>
       </c>
       <c r="U29" s="11">
-        <v>1978</v>
+        <v>2029</v>
       </c>
       <c r="V29" s="11">
-        <v>1046</v>
+        <v>1614</v>
       </c>
       <c r="W29" s="11">
-        <v>2029</v>
+        <v>2242</v>
       </c>
       <c r="X29" s="11">
-        <v>1614</v>
+        <v>2323</v>
       </c>
       <c r="Y29" s="11">
-        <v>2242</v>
+        <v>2282</v>
       </c>
       <c r="Z29" s="11">
-        <v>2323</v>
+        <v>1606</v>
       </c>
       <c r="AA29" s="11">
-        <v>2282</v>
+        <v>2132</v>
       </c>
       <c r="AB29" s="11">
-        <v>1606</v>
+        <v>1485</v>
       </c>
       <c r="AC29" s="11">
-        <v>2132</v>
+        <v>1872</v>
       </c>
       <c r="AD29" s="11">
-        <v>1485</v>
+        <v>1755</v>
       </c>
       <c r="AE29" s="11">
-        <v>1872</v>
+        <v>1851</v>
       </c>
       <c r="AF29" s="11">
-        <v>1755</v>
+        <v>1563</v>
       </c>
       <c r="AG29" s="11">
-        <v>1851</v>
+        <v>2010</v>
       </c>
       <c r="AH29" s="11">
-        <v>1563</v>
+        <v>680</v>
       </c>
       <c r="AI29" s="11">
-        <v>2010</v>
+        <v>1118</v>
       </c>
       <c r="AJ29" s="11">
-        <v>680</v>
+        <v>1410</v>
       </c>
       <c r="AK29" s="11">
-        <v>1118</v>
+        <v>2517</v>
       </c>
       <c r="AL29" s="11">
-        <v>1410</v>
+        <v>1856</v>
       </c>
       <c r="AM29" s="11">
-        <v>2517</v>
+        <v>2412</v>
       </c>
       <c r="AN29" s="11">
-        <v>1856</v>
+        <v>1714</v>
       </c>
       <c r="AO29" s="11">
-        <v>2412</v>
+        <v>2359</v>
       </c>
       <c r="AP29" s="11">
-        <v>1714</v>
+        <v>2056</v>
       </c>
       <c r="AQ29" s="11">
-        <v>2359</v>
+        <v>1930</v>
       </c>
       <c r="AR29" s="11">
-        <v>2056</v>
+        <v>2291</v>
       </c>
       <c r="AS29" s="11">
-        <v>1930</v>
+        <v>1946</v>
       </c>
       <c r="AT29" s="11">
-        <v>2291</v>
+        <v>1934</v>
       </c>
       <c r="AU29" s="11">
-        <v>1946</v>
+        <v>2483</v>
       </c>
       <c r="AV29" s="11">
-        <v>1934</v>
+        <v>2379</v>
       </c>
       <c r="AW29" s="11">
-        <v>2483</v>
+        <v>1933</v>
       </c>
       <c r="AX29" s="11">
-        <v>2379</v>
+        <v>1641</v>
       </c>
       <c r="AY29" s="11">
-        <v>1933</v>
+        <v>1771</v>
       </c>
       <c r="AZ29" s="11">
-        <v>1641</v>
+        <v>1666</v>
       </c>
       <c r="BA29" s="11">
-        <v>1771</v>
+        <v>1737</v>
       </c>
       <c r="BB29" s="11">
-        <v>1666</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
@@ -3769,154 +3804,154 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>784</v>
+        <v>1593</v>
       </c>
       <c r="F30" s="13">
-        <v>947</v>
+        <v>1441</v>
       </c>
       <c r="G30" s="13">
-        <v>1593</v>
+        <v>1513</v>
       </c>
       <c r="H30" s="13">
-        <v>1441</v>
+        <v>1511</v>
       </c>
       <c r="I30" s="13">
-        <v>1513</v>
+        <v>1385</v>
       </c>
       <c r="J30" s="13">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="K30" s="13">
-        <v>1385</v>
+        <v>2681</v>
       </c>
       <c r="L30" s="13">
-        <v>1502</v>
+        <v>3280</v>
       </c>
       <c r="M30" s="13">
-        <v>2681</v>
+        <v>3180</v>
       </c>
       <c r="N30" s="13">
-        <v>3280</v>
+        <v>2502</v>
       </c>
       <c r="O30" s="13">
-        <v>3180</v>
+        <v>2452</v>
       </c>
       <c r="P30" s="13">
-        <v>2502</v>
+        <v>2168</v>
       </c>
       <c r="Q30" s="13">
-        <v>2452</v>
+        <v>2354</v>
       </c>
       <c r="R30" s="13">
-        <v>2168</v>
+        <v>1851</v>
       </c>
       <c r="S30" s="13">
-        <v>2354</v>
+        <v>1855</v>
       </c>
       <c r="T30" s="13">
-        <v>1851</v>
+        <v>969</v>
       </c>
       <c r="U30" s="13">
-        <v>1855</v>
+        <v>1915</v>
       </c>
       <c r="V30" s="13">
-        <v>969</v>
+        <v>1078</v>
       </c>
       <c r="W30" s="13">
-        <v>1915</v>
+        <v>1764</v>
       </c>
       <c r="X30" s="13">
-        <v>1078</v>
+        <v>1339</v>
       </c>
       <c r="Y30" s="13">
-        <v>1764</v>
+        <v>2984</v>
       </c>
       <c r="Z30" s="13">
-        <v>1339</v>
+        <v>3424</v>
       </c>
       <c r="AA30" s="13">
-        <v>2984</v>
+        <v>3578</v>
       </c>
       <c r="AB30" s="13">
-        <v>3424</v>
+        <v>3383</v>
       </c>
       <c r="AC30" s="13">
-        <v>3578</v>
+        <v>3611</v>
       </c>
       <c r="AD30" s="13">
-        <v>3383</v>
+        <v>2884</v>
       </c>
       <c r="AE30" s="13">
-        <v>3611</v>
+        <v>3114</v>
       </c>
       <c r="AF30" s="13">
-        <v>2884</v>
+        <v>1777</v>
       </c>
       <c r="AG30" s="13">
-        <v>3114</v>
+        <v>3304</v>
       </c>
       <c r="AH30" s="13">
-        <v>1777</v>
+        <v>2730</v>
       </c>
       <c r="AI30" s="13">
-        <v>3304</v>
+        <v>2650</v>
       </c>
       <c r="AJ30" s="13">
-        <v>2730</v>
+        <v>2026</v>
       </c>
       <c r="AK30" s="13">
-        <v>2650</v>
+        <v>2193</v>
       </c>
       <c r="AL30" s="13">
-        <v>2026</v>
+        <v>2877</v>
       </c>
       <c r="AM30" s="13">
-        <v>2193</v>
+        <v>2321</v>
       </c>
       <c r="AN30" s="13">
-        <v>2877</v>
+        <v>1694</v>
       </c>
       <c r="AO30" s="13">
-        <v>2321</v>
+        <v>1996</v>
       </c>
       <c r="AP30" s="13">
-        <v>1694</v>
+        <v>1086</v>
       </c>
       <c r="AQ30" s="13">
-        <v>1996</v>
+        <v>66</v>
       </c>
       <c r="AR30" s="13">
-        <v>1086</v>
+        <v>16</v>
       </c>
       <c r="AS30" s="13">
-        <v>66</v>
+        <v>648</v>
       </c>
       <c r="AT30" s="13">
-        <v>16</v>
+        <v>1642</v>
       </c>
       <c r="AU30" s="13">
-        <v>648</v>
+        <v>529</v>
       </c>
       <c r="AV30" s="13">
-        <v>1642</v>
+        <v>468</v>
       </c>
       <c r="AW30" s="13">
-        <v>529</v>
+        <v>310</v>
       </c>
       <c r="AX30" s="13">
-        <v>468</v>
+        <v>25</v>
       </c>
       <c r="AY30" s="13">
-        <v>310</v>
+        <v>716</v>
       </c>
       <c r="AZ30" s="13">
-        <v>25</v>
+        <v>2542</v>
       </c>
       <c r="BA30" s="13">
-        <v>716</v>
+        <v>1228</v>
       </c>
       <c r="BB30" s="13">
-        <v>2542</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
@@ -4005,77 +4040,77 @@
       <c r="AD31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF31" s="11" t="s">
-        <v>57</v>
+      <c r="AE31" s="11">
+        <v>540</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>1311</v>
       </c>
       <c r="AG31" s="11">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="AH31" s="11">
-        <v>1311</v>
+        <v>22</v>
       </c>
       <c r="AI31" s="11">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="11">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="AK31" s="11">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AL31" s="11">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="AM31" s="11">
-        <v>69</v>
+        <v>816</v>
       </c>
       <c r="AN31" s="11">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="AO31" s="11">
-        <v>816</v>
+        <v>352</v>
       </c>
       <c r="AP31" s="11">
-        <v>397</v>
+        <v>1074</v>
       </c>
       <c r="AQ31" s="11">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="AR31" s="11">
-        <v>1074</v>
+        <v>29</v>
       </c>
       <c r="AS31" s="11">
-        <v>410</v>
+        <v>226</v>
       </c>
       <c r="AT31" s="11">
-        <v>29</v>
+        <v>996</v>
       </c>
       <c r="AU31" s="11">
-        <v>226</v>
+        <v>760</v>
       </c>
       <c r="AV31" s="11">
-        <v>996</v>
+        <v>395</v>
       </c>
       <c r="AW31" s="11">
-        <v>760</v>
+        <v>1564</v>
       </c>
       <c r="AX31" s="11">
-        <v>395</v>
+        <v>1350</v>
       </c>
       <c r="AY31" s="11">
-        <v>1564</v>
+        <v>1308</v>
       </c>
       <c r="AZ31" s="11">
-        <v>1350</v>
+        <v>172</v>
       </c>
       <c r="BA31" s="11">
-        <v>1308</v>
+        <v>180</v>
       </c>
       <c r="BB31" s="11">
-        <v>172</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
@@ -4107,32 +4142,32 @@
       <c r="K32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>57</v>
+      <c r="L32" s="13">
+        <v>100</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
       </c>
       <c r="N32" s="13">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="13">
         <v>100</v>
       </c>
-      <c r="O32" s="13">
-        <v>0</v>
-      </c>
-      <c r="P32" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>0</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>57</v>
+      <c r="S32" s="13">
+        <v>0</v>
       </c>
       <c r="T32" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="13">
         <v>0</v>
@@ -4153,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="AA32" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB32" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC32" s="13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="13">
         <v>0</v>
@@ -4227,11 +4262,11 @@
       <c r="AY32" s="13">
         <v>0</v>
       </c>
-      <c r="AZ32" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA32" s="13">
-        <v>0</v>
+      <c r="AZ32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB32" s="13" t="s">
         <v>57</v>
@@ -4371,11 +4406,11 @@
       <c r="AA34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>57</v>
+      <c r="AB34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>0</v>
       </c>
       <c r="AD34" s="11">
         <v>0</v>
@@ -4386,29 +4421,29 @@
       <c r="AF34" s="11">
         <v>0</v>
       </c>
-      <c r="AG34" s="11">
-        <v>0</v>
+      <c r="AG34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH34" s="11">
         <v>0</v>
       </c>
-      <c r="AI34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="11" t="s">
-        <v>57</v>
+      <c r="AI34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>0</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN34" s="11">
-        <v>0</v>
+      <c r="AN34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO34" s="11" t="s">
         <v>57</v>
@@ -4528,11 +4563,11 @@
       <c r="AA35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC35" s="15" t="s">
-        <v>57</v>
+      <c r="AB35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>0</v>
       </c>
       <c r="AD35" s="15">
         <v>0</v>
@@ -4753,35 +4788,35 @@
       <c r="AD37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG37" s="11">
+      <c r="AE37" s="11">
         <v>-4</v>
       </c>
+      <c r="AF37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="11" t="s">
-        <v>57</v>
+      <c r="AI37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>0</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN37" s="11">
-        <v>0</v>
+      <c r="AN37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO37" s="11" t="s">
         <v>57</v>
@@ -4789,26 +4824,26 @@
       <c r="AP37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR37" s="11" t="s">
-        <v>57</v>
+      <c r="AQ37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>0</v>
       </c>
       <c r="AS37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>0</v>
+        <v>-44</v>
+      </c>
+      <c r="AT37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU37" s="11">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW37" s="11">
-        <v>0</v>
+      <c r="AW37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX37" s="11" t="s">
         <v>57</v>
@@ -4819,8 +4854,8 @@
       <c r="AZ37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA37" s="11">
-        <v>0</v>
+      <c r="BA37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB37" s="11" t="s">
         <v>57</v>
@@ -4930,17 +4965,17 @@
       <c r="AJ38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM38" s="13">
+      <c r="AK38" s="13">
         <v>-44</v>
       </c>
-      <c r="AN38" s="13">
-        <v>0</v>
+      <c r="AL38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO38" s="13" t="s">
         <v>57</v>
@@ -4973,13 +5008,13 @@
         <v>57</v>
       </c>
       <c r="AY38" s="13">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AZ38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA38" s="13">
-        <v>-36</v>
+      <c r="BA38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB38" s="13" t="s">
         <v>57</v>
@@ -5095,14 +5130,14 @@
       <c r="AL39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM39" s="11" t="s">
-        <v>57</v>
+      <c r="AM39" s="11">
+        <v>0</v>
       </c>
       <c r="AN39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO39" s="11">
-        <v>0</v>
+      <c r="AO39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP39" s="11" t="s">
         <v>57</v>
@@ -5119,14 +5154,14 @@
       <c r="AT39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU39" s="11" t="s">
-        <v>57</v>
+      <c r="AU39" s="11">
+        <v>0</v>
       </c>
       <c r="AV39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW39" s="11">
-        <v>0</v>
+      <c r="AW39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX39" s="11" t="s">
         <v>57</v>
@@ -5290,14 +5325,14 @@
       <c r="AX40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY40" s="13" t="s">
-        <v>57</v>
+      <c r="AY40" s="13">
+        <v>-9</v>
       </c>
       <c r="AZ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA40" s="13">
-        <v>-9</v>
+      <c r="BA40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB40" s="13" t="s">
         <v>57</v>
@@ -5378,23 +5413,23 @@
       <c r="AA41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB41" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC41" s="17" t="s">
-        <v>57</v>
+      <c r="AB41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>0</v>
       </c>
       <c r="AD41" s="17">
         <v>0</v>
       </c>
       <c r="AE41" s="17">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AF41" s="17">
         <v>0</v>
       </c>
       <c r="AG41" s="17">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="17">
         <v>0</v>
@@ -5406,37 +5441,37 @@
         <v>0</v>
       </c>
       <c r="AK41" s="17">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AL41" s="17">
         <v>0</v>
       </c>
       <c r="AM41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="17">
         <v>-44</v>
       </c>
-      <c r="AN41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="17">
-        <v>0</v>
-      </c>
       <c r="AT41" s="17">
         <v>0</v>
       </c>
       <c r="AU41" s="17">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="17">
         <v>0</v>
@@ -5448,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="AY41" s="17">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AZ41" s="17">
         <v>0</v>
       </c>
       <c r="BA41" s="17">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="17">
         <v>0</v>
@@ -5467,154 +5502,154 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>5135</v>
+        <v>4916</v>
       </c>
       <c r="F42" s="15">
-        <v>5577</v>
+        <v>5217</v>
       </c>
       <c r="G42" s="15">
-        <v>4916</v>
+        <v>5308</v>
       </c>
       <c r="H42" s="15">
-        <v>5217</v>
+        <v>4345</v>
       </c>
       <c r="I42" s="15">
-        <v>5308</v>
+        <v>5318</v>
       </c>
       <c r="J42" s="15">
-        <v>4345</v>
+        <v>5010</v>
       </c>
       <c r="K42" s="15">
-        <v>5318</v>
+        <v>4662</v>
       </c>
       <c r="L42" s="15">
-        <v>5010</v>
+        <v>4829</v>
       </c>
       <c r="M42" s="15">
-        <v>4662</v>
+        <v>5134</v>
       </c>
       <c r="N42" s="15">
-        <v>4829</v>
+        <v>4688</v>
       </c>
       <c r="O42" s="15">
-        <v>5134</v>
+        <v>4656</v>
       </c>
       <c r="P42" s="15">
-        <v>4688</v>
+        <v>4824</v>
       </c>
       <c r="Q42" s="15">
-        <v>4656</v>
+        <v>4965</v>
       </c>
       <c r="R42" s="15">
-        <v>4824</v>
+        <v>5208</v>
       </c>
       <c r="S42" s="15">
-        <v>4965</v>
+        <v>4429</v>
       </c>
       <c r="T42" s="15">
-        <v>5208</v>
+        <v>2493</v>
       </c>
       <c r="U42" s="15">
-        <v>4429</v>
+        <v>4614</v>
       </c>
       <c r="V42" s="15">
-        <v>2493</v>
+        <v>4304</v>
       </c>
       <c r="W42" s="15">
-        <v>4614</v>
+        <v>5088</v>
       </c>
       <c r="X42" s="15">
-        <v>4304</v>
+        <v>5181</v>
       </c>
       <c r="Y42" s="15">
-        <v>5088</v>
+        <v>6630</v>
       </c>
       <c r="Z42" s="15">
-        <v>5181</v>
+        <v>6692</v>
       </c>
       <c r="AA42" s="15">
-        <v>6630</v>
+        <v>6615</v>
       </c>
       <c r="AB42" s="15">
-        <v>6692</v>
+        <v>5122</v>
       </c>
       <c r="AC42" s="15">
-        <v>6615</v>
+        <v>5575</v>
       </c>
       <c r="AD42" s="15">
-        <v>5122</v>
+        <v>5427</v>
       </c>
       <c r="AE42" s="15">
-        <v>5575</v>
+        <v>6071</v>
       </c>
       <c r="AF42" s="15">
-        <v>5427</v>
+        <v>4651</v>
       </c>
       <c r="AG42" s="15">
-        <v>6071</v>
+        <v>6645</v>
       </c>
       <c r="AH42" s="15">
-        <v>4651</v>
+        <v>4047</v>
       </c>
       <c r="AI42" s="15">
-        <v>6645</v>
+        <v>4233</v>
       </c>
       <c r="AJ42" s="15">
-        <v>4047</v>
+        <v>5248</v>
       </c>
       <c r="AK42" s="15">
-        <v>4233</v>
+        <v>5439</v>
       </c>
       <c r="AL42" s="15">
-        <v>5248</v>
+        <v>5718</v>
       </c>
       <c r="AM42" s="15">
-        <v>5439</v>
+        <v>6610</v>
       </c>
       <c r="AN42" s="15">
-        <v>5718</v>
+        <v>4711</v>
       </c>
       <c r="AO42" s="15">
-        <v>6610</v>
+        <v>5457</v>
       </c>
       <c r="AP42" s="15">
-        <v>4711</v>
+        <v>5781</v>
       </c>
       <c r="AQ42" s="15">
-        <v>5457</v>
+        <v>4424</v>
       </c>
       <c r="AR42" s="15">
-        <v>5781</v>
+        <v>6193</v>
       </c>
       <c r="AS42" s="15">
-        <v>4406</v>
+        <v>6623</v>
       </c>
       <c r="AT42" s="15">
-        <v>6193</v>
+        <v>5835</v>
       </c>
       <c r="AU42" s="15">
-        <v>6623</v>
+        <v>6789</v>
       </c>
       <c r="AV42" s="15">
-        <v>5835</v>
+        <v>6115</v>
       </c>
       <c r="AW42" s="15">
-        <v>6789</v>
+        <v>6241</v>
       </c>
       <c r="AX42" s="15">
-        <v>6115</v>
+        <v>5204</v>
       </c>
       <c r="AY42" s="15">
-        <v>6241</v>
+        <v>5472</v>
       </c>
       <c r="AZ42" s="15">
-        <v>5204</v>
+        <v>5572</v>
       </c>
       <c r="BA42" s="15">
-        <v>5472</v>
+        <v>5148</v>
       </c>
       <c r="BB42" s="15">
-        <v>5572</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -6060,49 +6095,49 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>10807</v>
+        <v>1471</v>
       </c>
       <c r="F49" s="11">
-        <v>37139</v>
+        <v>3926</v>
       </c>
       <c r="G49" s="11">
-        <v>1471</v>
+        <v>296</v>
       </c>
       <c r="H49" s="11">
-        <v>3926</v>
+        <v>1523</v>
       </c>
       <c r="I49" s="11">
-        <v>296</v>
+        <v>16457</v>
       </c>
       <c r="J49" s="11">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="K49" s="11">
-        <v>16457</v>
+        <v>175</v>
       </c>
       <c r="L49" s="11">
         <v>0</v>
       </c>
       <c r="M49" s="11">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="N49" s="11">
         <v>0</v>
       </c>
       <c r="O49" s="11">
-        <v>0</v>
+        <v>25275</v>
       </c>
       <c r="P49" s="11">
-        <v>0</v>
+        <v>28310</v>
       </c>
       <c r="Q49" s="11">
-        <v>25275</v>
+        <v>8452</v>
       </c>
       <c r="R49" s="11">
-        <v>28310</v>
+        <v>0</v>
       </c>
       <c r="S49" s="11">
-        <v>8452</v>
+        <v>0</v>
       </c>
       <c r="T49" s="11">
         <v>0</v>
@@ -6114,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="W49" s="11">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="X49" s="11">
         <v>0</v>
       </c>
       <c r="Y49" s="11">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="11">
         <v>0</v>
@@ -6129,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="AB49" s="11">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="AC49" s="11">
         <v>0</v>
       </c>
       <c r="AD49" s="11">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="11">
         <v>0</v>
@@ -6162,25 +6197,25 @@
         <v>0</v>
       </c>
       <c r="AM49" s="11">
-        <v>0</v>
+        <v>199757</v>
       </c>
       <c r="AN49" s="11">
         <v>0</v>
       </c>
       <c r="AO49" s="11">
-        <v>199757</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="11">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AQ49" s="11">
         <v>0</v>
       </c>
       <c r="AR49" s="11">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="11">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="11">
         <v>0</v>
@@ -6200,14 +6235,14 @@
       <c r="AY49" s="11">
         <v>0</v>
       </c>
-      <c r="AZ49" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA49" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="11" t="s">
-        <v>57</v>
+      <c r="AZ49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB49" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
@@ -6219,154 +6254,154 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>222638</v>
+        <v>90253</v>
       </c>
       <c r="F50" s="13">
-        <v>119315</v>
+        <v>136027</v>
       </c>
       <c r="G50" s="13">
-        <v>90253</v>
+        <v>143353</v>
       </c>
       <c r="H50" s="13">
-        <v>136027</v>
+        <v>96060</v>
       </c>
       <c r="I50" s="13">
-        <v>143353</v>
+        <v>164556</v>
       </c>
       <c r="J50" s="13">
-        <v>96060</v>
+        <v>186885</v>
       </c>
       <c r="K50" s="13">
-        <v>164556</v>
+        <v>91208</v>
       </c>
       <c r="L50" s="13">
-        <v>186885</v>
+        <v>49298</v>
       </c>
       <c r="M50" s="13">
-        <v>91208</v>
+        <v>39787</v>
       </c>
       <c r="N50" s="13">
-        <v>49298</v>
+        <v>24900</v>
       </c>
       <c r="O50" s="13">
-        <v>39787</v>
+        <v>0</v>
       </c>
       <c r="P50" s="13">
-        <v>24900</v>
+        <v>29188</v>
       </c>
       <c r="Q50" s="13">
-        <v>0</v>
+        <v>27288</v>
       </c>
       <c r="R50" s="13">
-        <v>29188</v>
+        <v>80316</v>
       </c>
       <c r="S50" s="13">
-        <v>27288</v>
+        <v>42679</v>
       </c>
       <c r="T50" s="13">
-        <v>80316</v>
+        <v>35760</v>
       </c>
       <c r="U50" s="13">
-        <v>42679</v>
+        <v>52517</v>
       </c>
       <c r="V50" s="13">
-        <v>35760</v>
+        <v>121817</v>
       </c>
       <c r="W50" s="13">
-        <v>52517</v>
+        <v>104345</v>
       </c>
       <c r="X50" s="13">
-        <v>121817</v>
+        <v>134669</v>
       </c>
       <c r="Y50" s="13">
-        <v>104345</v>
+        <v>133125</v>
       </c>
       <c r="Z50" s="13">
-        <v>134669</v>
+        <v>166201</v>
       </c>
       <c r="AA50" s="13">
-        <v>133125</v>
+        <v>60528</v>
       </c>
       <c r="AB50" s="13">
-        <v>166201</v>
+        <v>5121</v>
       </c>
       <c r="AC50" s="13">
-        <v>60528</v>
+        <v>10189</v>
       </c>
       <c r="AD50" s="13">
-        <v>5121</v>
+        <v>98708</v>
       </c>
       <c r="AE50" s="13">
-        <v>10189</v>
+        <v>60388</v>
       </c>
       <c r="AF50" s="13">
-        <v>98708</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="13">
-        <v>60388</v>
+        <v>96951</v>
       </c>
       <c r="AH50" s="13">
-        <v>0</v>
+        <v>90812</v>
       </c>
       <c r="AI50" s="13">
-        <v>96951</v>
+        <v>59006</v>
       </c>
       <c r="AJ50" s="13">
-        <v>90812</v>
+        <v>206963</v>
       </c>
       <c r="AK50" s="13">
-        <v>59006</v>
+        <v>106692</v>
       </c>
       <c r="AL50" s="13">
-        <v>206963</v>
+        <v>98682</v>
       </c>
       <c r="AM50" s="13">
-        <v>106692</v>
+        <v>159909</v>
       </c>
       <c r="AN50" s="13">
-        <v>98682</v>
+        <v>125110</v>
       </c>
       <c r="AO50" s="13">
-        <v>159909</v>
+        <v>132518</v>
       </c>
       <c r="AP50" s="13">
-        <v>125110</v>
+        <v>287900</v>
       </c>
       <c r="AQ50" s="13">
-        <v>132518</v>
+        <v>389698</v>
       </c>
       <c r="AR50" s="13">
-        <v>287900</v>
+        <v>781590</v>
       </c>
       <c r="AS50" s="13">
-        <v>389698</v>
+        <v>690849</v>
       </c>
       <c r="AT50" s="13">
-        <v>781590</v>
+        <v>274518</v>
       </c>
       <c r="AU50" s="13">
-        <v>690849</v>
+        <v>520310</v>
       </c>
       <c r="AV50" s="13">
-        <v>274518</v>
+        <v>559973</v>
       </c>
       <c r="AW50" s="13">
-        <v>520310</v>
+        <v>526489</v>
       </c>
       <c r="AX50" s="13">
-        <v>559973</v>
+        <v>477996</v>
       </c>
       <c r="AY50" s="13">
-        <v>526489</v>
+        <v>1255210</v>
       </c>
       <c r="AZ50" s="13">
-        <v>477996</v>
+        <v>243870</v>
       </c>
       <c r="BA50" s="13">
-        <v>332483</v>
+        <v>395828</v>
       </c>
       <c r="BB50" s="13">
-        <v>243870</v>
+        <v>498284</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
@@ -6378,154 +6413,154 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>64695</v>
+        <v>91767</v>
       </c>
       <c r="F51" s="11">
-        <v>101454</v>
+        <v>60713</v>
       </c>
       <c r="G51" s="11">
-        <v>91767</v>
+        <v>60099</v>
       </c>
       <c r="H51" s="11">
-        <v>60713</v>
+        <v>54474</v>
       </c>
       <c r="I51" s="11">
-        <v>60099</v>
+        <v>62257</v>
       </c>
       <c r="J51" s="11">
-        <v>54474</v>
+        <v>50230</v>
       </c>
       <c r="K51" s="11">
-        <v>62257</v>
+        <v>38445</v>
       </c>
       <c r="L51" s="11">
-        <v>50230</v>
+        <v>38229</v>
       </c>
       <c r="M51" s="11">
-        <v>38445</v>
+        <v>73746</v>
       </c>
       <c r="N51" s="11">
-        <v>38229</v>
+        <v>75646</v>
       </c>
       <c r="O51" s="11">
-        <v>73746</v>
+        <v>70248</v>
       </c>
       <c r="P51" s="11">
-        <v>75646</v>
+        <v>70444</v>
       </c>
       <c r="Q51" s="11">
-        <v>70248</v>
+        <v>80539</v>
       </c>
       <c r="R51" s="11">
-        <v>70444</v>
+        <v>83738</v>
       </c>
       <c r="S51" s="11">
-        <v>80539</v>
+        <v>76876</v>
       </c>
       <c r="T51" s="11">
-        <v>83738</v>
+        <v>45557</v>
       </c>
       <c r="U51" s="11">
-        <v>76876</v>
+        <v>93906</v>
       </c>
       <c r="V51" s="11">
-        <v>45557</v>
+        <v>86455</v>
       </c>
       <c r="W51" s="11">
-        <v>93906</v>
+        <v>137902</v>
       </c>
       <c r="X51" s="11">
-        <v>86455</v>
+        <v>155322</v>
       </c>
       <c r="Y51" s="11">
-        <v>137902</v>
+        <v>168558</v>
       </c>
       <c r="Z51" s="11">
-        <v>155322</v>
+        <v>122042</v>
       </c>
       <c r="AA51" s="11">
-        <v>168558</v>
+        <v>202481</v>
       </c>
       <c r="AB51" s="11">
-        <v>122042</v>
+        <v>163551</v>
       </c>
       <c r="AC51" s="11">
-        <v>202481</v>
+        <v>213713</v>
       </c>
       <c r="AD51" s="11">
-        <v>163551</v>
+        <v>212679</v>
       </c>
       <c r="AE51" s="11">
-        <v>213713</v>
+        <v>232674</v>
       </c>
       <c r="AF51" s="11">
-        <v>212679</v>
+        <v>204790</v>
       </c>
       <c r="AG51" s="11">
-        <v>232674</v>
+        <v>307721</v>
       </c>
       <c r="AH51" s="11">
-        <v>204790</v>
+        <v>105197</v>
       </c>
       <c r="AI51" s="11">
-        <v>307721</v>
+        <v>151255</v>
       </c>
       <c r="AJ51" s="11">
-        <v>105197</v>
+        <v>170126</v>
       </c>
       <c r="AK51" s="11">
-        <v>151255</v>
+        <v>295356</v>
       </c>
       <c r="AL51" s="11">
-        <v>170126</v>
+        <v>214004</v>
       </c>
       <c r="AM51" s="11">
-        <v>295356</v>
+        <v>294174</v>
       </c>
       <c r="AN51" s="11">
-        <v>214004</v>
+        <v>241444</v>
       </c>
       <c r="AO51" s="11">
-        <v>294174</v>
+        <v>321408</v>
       </c>
       <c r="AP51" s="11">
-        <v>241444</v>
+        <v>299626</v>
       </c>
       <c r="AQ51" s="11">
-        <v>321408</v>
+        <v>295148</v>
       </c>
       <c r="AR51" s="11">
-        <v>299626</v>
+        <v>368233</v>
       </c>
       <c r="AS51" s="11">
-        <v>295148</v>
+        <v>317606</v>
       </c>
       <c r="AT51" s="11">
-        <v>368233</v>
+        <v>324768</v>
       </c>
       <c r="AU51" s="11">
-        <v>317606</v>
+        <v>421493</v>
       </c>
       <c r="AV51" s="11">
-        <v>324768</v>
+        <v>412729</v>
       </c>
       <c r="AW51" s="11">
-        <v>421493</v>
+        <v>333044</v>
       </c>
       <c r="AX51" s="11">
-        <v>412729</v>
+        <v>277622</v>
       </c>
       <c r="AY51" s="11">
-        <v>333044</v>
+        <v>275288</v>
       </c>
       <c r="AZ51" s="11">
-        <v>277622</v>
+        <v>264431</v>
       </c>
       <c r="BA51" s="11">
-        <v>275289</v>
+        <v>273300</v>
       </c>
       <c r="BB51" s="11">
-        <v>264431</v>
+        <v>307220</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
@@ -6537,154 +6572,154 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>63319</v>
+        <v>138134</v>
       </c>
       <c r="F52" s="13">
-        <v>76509</v>
+        <v>124772</v>
       </c>
       <c r="G52" s="13">
-        <v>138134</v>
+        <v>130485</v>
       </c>
       <c r="H52" s="13">
-        <v>124772</v>
+        <v>130149</v>
       </c>
       <c r="I52" s="13">
-        <v>130485</v>
+        <v>127705</v>
       </c>
       <c r="J52" s="13">
-        <v>130149</v>
+        <v>143859</v>
       </c>
       <c r="K52" s="13">
-        <v>127705</v>
+        <v>256908</v>
       </c>
       <c r="L52" s="13">
-        <v>143859</v>
+        <v>298854</v>
       </c>
       <c r="M52" s="13">
-        <v>256908</v>
+        <v>277936</v>
       </c>
       <c r="N52" s="13">
-        <v>298854</v>
+        <v>219371</v>
       </c>
       <c r="O52" s="13">
-        <v>277936</v>
+        <v>215456</v>
       </c>
       <c r="P52" s="13">
-        <v>219371</v>
+        <v>189832</v>
       </c>
       <c r="Q52" s="13">
-        <v>215456</v>
+        <v>206401</v>
       </c>
       <c r="R52" s="13">
-        <v>189832</v>
+        <v>162139</v>
       </c>
       <c r="S52" s="13">
-        <v>206401</v>
+        <v>172158</v>
       </c>
       <c r="T52" s="13">
-        <v>162139</v>
+        <v>89763</v>
       </c>
       <c r="U52" s="13">
-        <v>172158</v>
+        <v>163941</v>
       </c>
       <c r="V52" s="13">
-        <v>89763</v>
+        <v>101489</v>
       </c>
       <c r="W52" s="13">
-        <v>163941</v>
+        <v>200867</v>
       </c>
       <c r="X52" s="13">
-        <v>101489</v>
+        <v>162443</v>
       </c>
       <c r="Y52" s="13">
-        <v>200867</v>
+        <v>393808</v>
       </c>
       <c r="Z52" s="13">
-        <v>162443</v>
+        <v>471418</v>
       </c>
       <c r="AA52" s="13">
-        <v>393808</v>
+        <v>528385</v>
       </c>
       <c r="AB52" s="13">
-        <v>471418</v>
+        <v>530816</v>
       </c>
       <c r="AC52" s="13">
-        <v>528385</v>
+        <v>583823</v>
       </c>
       <c r="AD52" s="13">
-        <v>530816</v>
+        <v>459613</v>
       </c>
       <c r="AE52" s="13">
-        <v>583823</v>
+        <v>470628</v>
       </c>
       <c r="AF52" s="13">
-        <v>459613</v>
+        <v>331045</v>
       </c>
       <c r="AG52" s="13">
-        <v>470628</v>
+        <v>647345</v>
       </c>
       <c r="AH52" s="13">
-        <v>331045</v>
+        <v>507154</v>
       </c>
       <c r="AI52" s="13">
-        <v>647345</v>
+        <v>509569</v>
       </c>
       <c r="AJ52" s="13">
-        <v>507154</v>
+        <v>375311</v>
       </c>
       <c r="AK52" s="13">
-        <v>509569</v>
+        <v>480315</v>
       </c>
       <c r="AL52" s="13">
-        <v>375311</v>
+        <v>546638</v>
       </c>
       <c r="AM52" s="13">
-        <v>480315</v>
+        <v>523412</v>
       </c>
       <c r="AN52" s="13">
-        <v>546638</v>
+        <v>401219</v>
       </c>
       <c r="AO52" s="13">
-        <v>523412</v>
+        <v>473999</v>
       </c>
       <c r="AP52" s="13">
-        <v>401219</v>
+        <v>259769</v>
       </c>
       <c r="AQ52" s="13">
-        <v>473999</v>
+        <v>15362</v>
       </c>
       <c r="AR52" s="13">
-        <v>259769</v>
+        <v>3800</v>
       </c>
       <c r="AS52" s="13">
-        <v>15362</v>
+        <v>133557</v>
       </c>
       <c r="AT52" s="13">
-        <v>3800</v>
+        <v>421555</v>
       </c>
       <c r="AU52" s="13">
-        <v>133557</v>
+        <v>147801</v>
       </c>
       <c r="AV52" s="13">
-        <v>421555</v>
+        <v>105154</v>
       </c>
       <c r="AW52" s="13">
-        <v>147801</v>
+        <v>74107</v>
       </c>
       <c r="AX52" s="13">
-        <v>105154</v>
+        <v>4880</v>
       </c>
       <c r="AY52" s="13">
-        <v>74107</v>
+        <v>189712</v>
       </c>
       <c r="AZ52" s="13">
-        <v>4880</v>
+        <v>627112</v>
       </c>
       <c r="BA52" s="13">
-        <v>189712</v>
+        <v>317721</v>
       </c>
       <c r="BB52" s="13">
-        <v>627112</v>
+        <v>313739</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -6773,77 +6808,77 @@
       <c r="AD53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF53" s="11" t="s">
-        <v>57</v>
+      <c r="AE53" s="11">
+        <v>82164</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>217132</v>
       </c>
       <c r="AG53" s="11">
-        <v>82164</v>
+        <v>106240</v>
       </c>
       <c r="AH53" s="11">
-        <v>217132</v>
+        <v>3985</v>
       </c>
       <c r="AI53" s="11">
-        <v>106240</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="11">
-        <v>3985</v>
+        <v>62885</v>
       </c>
       <c r="AK53" s="11">
-        <v>0</v>
+        <v>12846</v>
       </c>
       <c r="AL53" s="11">
-        <v>62885</v>
+        <v>55555</v>
       </c>
       <c r="AM53" s="11">
-        <v>12846</v>
+        <v>157315</v>
       </c>
       <c r="AN53" s="11">
-        <v>55555</v>
+        <v>80442</v>
       </c>
       <c r="AO53" s="11">
-        <v>157315</v>
+        <v>73747</v>
       </c>
       <c r="AP53" s="11">
-        <v>80442</v>
+        <v>231362</v>
       </c>
       <c r="AQ53" s="11">
-        <v>73747</v>
+        <v>92364</v>
       </c>
       <c r="AR53" s="11">
-        <v>231362</v>
+        <v>7279</v>
       </c>
       <c r="AS53" s="11">
-        <v>92364</v>
+        <v>65114</v>
       </c>
       <c r="AT53" s="11">
-        <v>7279</v>
+        <v>294629</v>
       </c>
       <c r="AU53" s="11">
-        <v>65114</v>
+        <v>232052</v>
       </c>
       <c r="AV53" s="11">
-        <v>294629</v>
+        <v>107985</v>
       </c>
       <c r="AW53" s="11">
-        <v>232052</v>
+        <v>380590</v>
       </c>
       <c r="AX53" s="11">
-        <v>107985</v>
+        <v>300538</v>
       </c>
       <c r="AY53" s="11">
-        <v>380590</v>
+        <v>277738</v>
       </c>
       <c r="AZ53" s="11">
-        <v>300538</v>
+        <v>34741</v>
       </c>
       <c r="BA53" s="11">
-        <v>277738</v>
+        <v>41997</v>
       </c>
       <c r="BB53" s="11">
-        <v>34741</v>
+        <v>293761</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
@@ -6875,32 +6910,32 @@
       <c r="K54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>57</v>
+      <c r="L54" s="13">
+        <v>6298</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0</v>
       </c>
       <c r="N54" s="13">
-        <v>6298</v>
+        <v>0</v>
       </c>
       <c r="O54" s="13">
         <v>0</v>
       </c>
-      <c r="P54" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="13">
-        <v>0</v>
-      </c>
-      <c r="R54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>57</v>
+      <c r="P54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R54" s="13">
+        <v>4891</v>
+      </c>
+      <c r="S54" s="13">
+        <v>0</v>
       </c>
       <c r="T54" s="13">
-        <v>4891</v>
+        <v>0</v>
       </c>
       <c r="U54" s="13">
         <v>0</v>
@@ -6921,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="AA54" s="13">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="AB54" s="13">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="AC54" s="13">
-        <v>17340</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="13">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="13">
         <v>0</v>
@@ -6995,11 +7030,11 @@
       <c r="AY54" s="13">
         <v>0</v>
       </c>
-      <c r="AZ54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA54" s="13">
-        <v>0</v>
+      <c r="AZ54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB54" s="13" t="s">
         <v>57</v>
@@ -7139,11 +7174,11 @@
       <c r="AA56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC56" s="11" t="s">
-        <v>57</v>
+      <c r="AB56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>0</v>
       </c>
       <c r="AD56" s="11">
         <v>0</v>
@@ -7175,11 +7210,11 @@
       <c r="AM56" s="11">
         <v>0</v>
       </c>
-      <c r="AN56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="11">
-        <v>0</v>
+      <c r="AN56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP56" s="11" t="s">
         <v>57</v>
@@ -7298,11 +7333,11 @@
       <c r="AA57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB57" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC57" s="15" t="s">
-        <v>57</v>
+      <c r="AB57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="15">
+        <v>0</v>
       </c>
       <c r="AD57" s="15">
         <v>0</v>
@@ -7523,14 +7558,14 @@
       <c r="AD59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF59" s="11" t="s">
-        <v>57</v>
+      <c r="AE59" s="11">
+        <v>-441</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="11">
         <v>0</v>
@@ -7550,29 +7585,29 @@
       <c r="AM59" s="11">
         <v>0</v>
       </c>
-      <c r="AN59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="11">
-        <v>0</v>
+      <c r="AN59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR59" s="11" t="s">
-        <v>57</v>
+      <c r="AQ59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="11">
+        <v>0</v>
       </c>
       <c r="AS59" s="11">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AT59" s="11">
         <v>0</v>
       </c>
       <c r="AU59" s="11">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="11">
         <v>0</v>
@@ -7586,11 +7621,11 @@
       <c r="AY59" s="11">
         <v>0</v>
       </c>
-      <c r="AZ59" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA59" s="11">
-        <v>0</v>
+      <c r="AZ59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB59" s="11" t="s">
         <v>57</v>
@@ -7700,20 +7735,20 @@
       <c r="AJ60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL60" s="13" t="s">
-        <v>57</v>
+      <c r="AK60" s="13">
+        <v>-5212</v>
+      </c>
+      <c r="AL60" s="13">
+        <v>0</v>
       </c>
       <c r="AM60" s="13">
-        <v>-5212</v>
-      </c>
-      <c r="AN60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP60" s="13" t="s">
         <v>57</v>
@@ -7736,20 +7771,20 @@
       <c r="AV60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX60" s="13" t="s">
-        <v>57</v>
+      <c r="AW60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="13">
+        <v>0</v>
       </c>
       <c r="AY60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ60" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA60" s="13">
         <v>-6083</v>
+      </c>
+      <c r="AZ60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB60" s="13" t="s">
         <v>57</v>
@@ -7865,14 +7900,14 @@
       <c r="AL61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM61" s="11" t="s">
-        <v>57</v>
+      <c r="AM61" s="11">
+        <v>0</v>
       </c>
       <c r="AN61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO61" s="11">
-        <v>0</v>
+      <c r="AO61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP61" s="11" t="s">
         <v>57</v>
@@ -7883,11 +7918,11 @@
       <c r="AR61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT61" s="11" t="s">
-        <v>57</v>
+      <c r="AS61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="11">
+        <v>0</v>
       </c>
       <c r="AU61" s="11">
         <v>0</v>
@@ -7895,11 +7930,11 @@
       <c r="AV61" s="11">
         <v>0</v>
       </c>
-      <c r="AW61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX61" s="11">
-        <v>0</v>
+      <c r="AW61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY61" s="11" t="s">
         <v>57</v>
@@ -8060,14 +8095,14 @@
       <c r="AX62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY62" s="13" t="s">
-        <v>57</v>
+      <c r="AY62" s="13">
+        <v>-1934</v>
       </c>
       <c r="AZ62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA62" s="13">
-        <v>-1934</v>
+      <c r="BA62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB62" s="13" t="s">
         <v>57</v>
@@ -8150,23 +8185,23 @@
       <c r="AA63" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB63" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC63" s="17" t="s">
-        <v>57</v>
+      <c r="AB63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="17">
+        <v>0</v>
       </c>
       <c r="AD63" s="17">
         <v>0</v>
       </c>
       <c r="AE63" s="17">
-        <v>0</v>
+        <v>-441</v>
       </c>
       <c r="AF63" s="17">
         <v>0</v>
       </c>
       <c r="AG63" s="17">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="17">
         <v>0</v>
@@ -8178,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="17">
-        <v>0</v>
+        <v>-5212</v>
       </c>
       <c r="AL63" s="17">
         <v>0</v>
       </c>
       <c r="AM63" s="17">
-        <v>-5212</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="17">
         <v>0</v>
@@ -8202,13 +8237,13 @@
         <v>0</v>
       </c>
       <c r="AS63" s="17">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AT63" s="17">
         <v>0</v>
       </c>
       <c r="AU63" s="17">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="17">
         <v>0</v>
@@ -8220,13 +8255,13 @@
         <v>0</v>
       </c>
       <c r="AY63" s="17">
-        <v>0</v>
+        <v>-8017</v>
       </c>
       <c r="AZ63" s="17">
         <v>0</v>
       </c>
       <c r="BA63" s="17">
-        <v>-8017</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="17">
         <v>0</v>
@@ -8366,11 +8401,11 @@
       <c r="AA65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC65" s="11" t="s">
-        <v>57</v>
+      <c r="AB65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>0</v>
       </c>
       <c r="AD65" s="11">
         <v>0</v>
@@ -8455,154 +8490,154 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>361459</v>
+        <v>321625</v>
       </c>
       <c r="F66" s="15">
-        <v>334417</v>
+        <v>325438</v>
       </c>
       <c r="G66" s="15">
-        <v>321625</v>
+        <v>334233</v>
       </c>
       <c r="H66" s="15">
-        <v>325438</v>
+        <v>282206</v>
       </c>
       <c r="I66" s="15">
-        <v>334233</v>
+        <v>370975</v>
       </c>
       <c r="J66" s="15">
-        <v>282206</v>
+        <v>380974</v>
       </c>
       <c r="K66" s="15">
-        <v>370975</v>
+        <v>386736</v>
       </c>
       <c r="L66" s="15">
-        <v>380974</v>
+        <v>392679</v>
       </c>
       <c r="M66" s="15">
-        <v>386736</v>
+        <v>391469</v>
       </c>
       <c r="N66" s="15">
-        <v>392679</v>
+        <v>319917</v>
       </c>
       <c r="O66" s="15">
-        <v>391469</v>
+        <v>310979</v>
       </c>
       <c r="P66" s="15">
-        <v>319917</v>
+        <v>317774</v>
       </c>
       <c r="Q66" s="15">
-        <v>310979</v>
+        <v>322680</v>
       </c>
       <c r="R66" s="15">
-        <v>317774</v>
+        <v>331084</v>
       </c>
       <c r="S66" s="15">
-        <v>322680</v>
+        <v>291713</v>
       </c>
       <c r="T66" s="15">
-        <v>331084</v>
+        <v>171080</v>
       </c>
       <c r="U66" s="15">
-        <v>291713</v>
+        <v>310364</v>
       </c>
       <c r="V66" s="15">
-        <v>171080</v>
+        <v>309761</v>
       </c>
       <c r="W66" s="15">
-        <v>310364</v>
+        <v>443905</v>
       </c>
       <c r="X66" s="15">
-        <v>309761</v>
+        <v>452434</v>
       </c>
       <c r="Y66" s="15">
-        <v>443905</v>
+        <v>695491</v>
       </c>
       <c r="Z66" s="15">
-        <v>452434</v>
+        <v>759661</v>
       </c>
       <c r="AA66" s="15">
-        <v>695491</v>
+        <v>808734</v>
       </c>
       <c r="AB66" s="15">
-        <v>759661</v>
+        <v>712449</v>
       </c>
       <c r="AC66" s="15">
-        <v>808734</v>
+        <v>807725</v>
       </c>
       <c r="AD66" s="15">
-        <v>712449</v>
+        <v>771000</v>
       </c>
       <c r="AE66" s="15">
-        <v>807725</v>
+        <v>845413</v>
       </c>
       <c r="AF66" s="15">
-        <v>771000</v>
+        <v>752967</v>
       </c>
       <c r="AG66" s="15">
-        <v>845413</v>
+        <v>1158257</v>
       </c>
       <c r="AH66" s="15">
-        <v>752967</v>
+        <v>707148</v>
       </c>
       <c r="AI66" s="15">
-        <v>1158257</v>
+        <v>719830</v>
       </c>
       <c r="AJ66" s="15">
-        <v>707148</v>
+        <v>815285</v>
       </c>
       <c r="AK66" s="15">
-        <v>719830</v>
+        <v>889997</v>
       </c>
       <c r="AL66" s="15">
-        <v>815285</v>
+        <v>914879</v>
       </c>
       <c r="AM66" s="15">
-        <v>889997</v>
+        <v>1334567</v>
       </c>
       <c r="AN66" s="15">
-        <v>914879</v>
+        <v>848215</v>
       </c>
       <c r="AO66" s="15">
-        <v>1334567</v>
+        <v>1001672</v>
       </c>
       <c r="AP66" s="15">
-        <v>848215</v>
+        <v>1105657</v>
       </c>
       <c r="AQ66" s="15">
-        <v>1001672</v>
+        <v>792572</v>
       </c>
       <c r="AR66" s="15">
-        <v>1105657</v>
+        <v>1160902</v>
       </c>
       <c r="AS66" s="15">
-        <v>765572</v>
+        <v>1196061</v>
       </c>
       <c r="AT66" s="15">
-        <v>1160902</v>
+        <v>1315470</v>
       </c>
       <c r="AU66" s="15">
-        <v>1196061</v>
+        <v>1321656</v>
       </c>
       <c r="AV66" s="15">
-        <v>1315470</v>
+        <v>1185841</v>
       </c>
       <c r="AW66" s="15">
-        <v>1321656</v>
+        <v>1314230</v>
       </c>
       <c r="AX66" s="15">
-        <v>1185841</v>
+        <v>1061036</v>
       </c>
       <c r="AY66" s="15">
-        <v>1314230</v>
+        <v>1989931</v>
       </c>
       <c r="AZ66" s="15">
-        <v>1061036</v>
+        <v>1170154</v>
       </c>
       <c r="BA66" s="15">
-        <v>1067205</v>
+        <v>1028846</v>
       </c>
       <c r="BB66" s="15">
-        <v>1170154</v>
+        <v>1413004</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
@@ -9048,49 +9083,49 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>60038889</v>
+        <v>63956522</v>
       </c>
       <c r="F73" s="11">
-        <v>63054329</v>
+        <v>63322581</v>
       </c>
       <c r="G73" s="11">
-        <v>63956522</v>
+        <v>59200000</v>
       </c>
       <c r="H73" s="11">
-        <v>63322581</v>
+        <v>60920000</v>
       </c>
       <c r="I73" s="11">
-        <v>59200000</v>
+        <v>65047431</v>
       </c>
       <c r="J73" s="11">
-        <v>60920000</v>
+        <v>0</v>
       </c>
       <c r="K73" s="11">
-        <v>65047431</v>
+        <v>87500000</v>
       </c>
       <c r="L73" s="11">
         <v>0</v>
       </c>
       <c r="M73" s="11">
-        <v>87500000</v>
+        <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>0</v>
       </c>
       <c r="O73" s="11">
-        <v>0</v>
+        <v>73473837</v>
       </c>
       <c r="P73" s="11">
-        <v>0</v>
+        <v>73532468</v>
       </c>
       <c r="Q73" s="11">
-        <v>73473837</v>
+        <v>73495652</v>
       </c>
       <c r="R73" s="11">
-        <v>73532468</v>
+        <v>0</v>
       </c>
       <c r="S73" s="11">
-        <v>73495652</v>
+        <v>0</v>
       </c>
       <c r="T73" s="11">
         <v>0</v>
@@ -9102,13 +9137,13 @@
         <v>0</v>
       </c>
       <c r="W73" s="11">
-        <v>0</v>
+        <v>98875000</v>
       </c>
       <c r="X73" s="11">
         <v>0</v>
       </c>
       <c r="Y73" s="11">
-        <v>98875000</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="11">
         <v>0</v>
@@ -9117,14 +9152,14 @@
         <v>0</v>
       </c>
       <c r="AB73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="11">
         <v>112200000</v>
       </c>
+      <c r="AC73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD73" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AE73" s="11" t="s">
         <v>57</v>
       </c>
@@ -9158,17 +9193,17 @@
       <c r="AO73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP73" s="11" t="s">
-        <v>57</v>
+      <c r="AP73" s="11">
+        <v>1500000000</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR73" s="11">
-        <v>1500000000</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>-1500000000</v>
+      <c r="AR73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT73" s="11" t="s">
         <v>57</v>
@@ -9207,154 +9242,154 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>80229910</v>
+        <v>69106432</v>
       </c>
       <c r="F74" s="13">
-        <v>63029583</v>
+        <v>69119411</v>
       </c>
       <c r="G74" s="13">
-        <v>69106432</v>
+        <v>69319632</v>
       </c>
       <c r="H74" s="13">
-        <v>69119411</v>
+        <v>69608696</v>
       </c>
       <c r="I74" s="13">
-        <v>69319632</v>
+        <v>80310395</v>
       </c>
       <c r="J74" s="13">
-        <v>69608696</v>
+        <v>84639946</v>
       </c>
       <c r="K74" s="13">
-        <v>80310395</v>
+        <v>92879837</v>
       </c>
       <c r="L74" s="13">
-        <v>84639946</v>
+        <v>94080153</v>
       </c>
       <c r="M74" s="13">
-        <v>92879837</v>
+        <v>85933045</v>
       </c>
       <c r="N74" s="13">
-        <v>94080153</v>
+        <v>77812500</v>
       </c>
       <c r="O74" s="13">
-        <v>85933045</v>
+        <v>0</v>
       </c>
       <c r="P74" s="13">
-        <v>77812500</v>
+        <v>84358382</v>
       </c>
       <c r="Q74" s="13">
-        <v>0</v>
+        <v>77084746</v>
       </c>
       <c r="R74" s="13">
-        <v>84358382</v>
+        <v>71582888</v>
       </c>
       <c r="S74" s="13">
-        <v>77084746</v>
+        <v>71609060</v>
       </c>
       <c r="T74" s="13">
-        <v>71582888</v>
+        <v>74811715</v>
       </c>
       <c r="U74" s="13">
-        <v>71609060</v>
+        <v>78383582</v>
       </c>
       <c r="V74" s="13">
-        <v>74811715</v>
+        <v>75568859</v>
       </c>
       <c r="W74" s="13">
-        <v>78383582</v>
+        <v>97155493</v>
       </c>
       <c r="X74" s="13">
-        <v>75568859</v>
+        <v>88656353</v>
       </c>
       <c r="Y74" s="13">
-        <v>97155493</v>
+        <v>97598974</v>
       </c>
       <c r="Z74" s="13">
-        <v>88656353</v>
+        <v>100000602</v>
       </c>
       <c r="AA74" s="13">
-        <v>97598974</v>
+        <v>100046281</v>
       </c>
       <c r="AB74" s="13">
-        <v>100000602</v>
+        <v>104510204</v>
       </c>
       <c r="AC74" s="13">
-        <v>100046281</v>
+        <v>110750000</v>
       </c>
       <c r="AD74" s="13">
-        <v>104510204</v>
+        <v>125263959</v>
       </c>
       <c r="AE74" s="13">
-        <v>110750000</v>
-      </c>
-      <c r="AF74" s="13">
-        <v>125263959</v>
+        <v>105943860</v>
+      </c>
+      <c r="AF74" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG74" s="13">
-        <v>105943860</v>
-      </c>
-      <c r="AH74" s="13" t="s">
-        <v>57</v>
+        <v>125259690</v>
+      </c>
+      <c r="AH74" s="13">
+        <v>147661789</v>
       </c>
       <c r="AI74" s="13">
-        <v>125259690</v>
+        <v>126894624</v>
       </c>
       <c r="AJ74" s="13">
-        <v>147661789</v>
+        <v>140123900</v>
       </c>
       <c r="AK74" s="13">
-        <v>126894624</v>
+        <v>151551136</v>
       </c>
       <c r="AL74" s="13">
-        <v>140123900</v>
+        <v>144695015</v>
       </c>
       <c r="AM74" s="13">
-        <v>151551136</v>
+        <v>159113433</v>
       </c>
       <c r="AN74" s="13">
-        <v>144695015</v>
+        <v>138090508</v>
       </c>
       <c r="AO74" s="13">
-        <v>159113433</v>
+        <v>176690667</v>
       </c>
       <c r="AP74" s="13">
-        <v>138090508</v>
+        <v>186102133</v>
       </c>
       <c r="AQ74" s="13">
-        <v>176690667</v>
+        <v>193111001</v>
       </c>
       <c r="AR74" s="13">
-        <v>186102133</v>
+        <v>202641950</v>
       </c>
       <c r="AS74" s="13">
-        <v>193111001</v>
+        <v>179581232</v>
       </c>
       <c r="AT74" s="13">
-        <v>202641950</v>
+        <v>217353919</v>
       </c>
       <c r="AU74" s="13">
-        <v>179581232</v>
+        <v>172459397</v>
       </c>
       <c r="AV74" s="13">
-        <v>217353919</v>
+        <v>194908806</v>
       </c>
       <c r="AW74" s="13">
-        <v>172459397</v>
+        <v>216306081</v>
       </c>
       <c r="AX74" s="13">
-        <v>194908806</v>
+        <v>218462523</v>
       </c>
       <c r="AY74" s="13">
-        <v>216306081</v>
+        <v>728925668</v>
       </c>
       <c r="AZ74" s="13">
-        <v>218462523</v>
+        <v>204588926</v>
       </c>
       <c r="BA74" s="13">
-        <v>193079559</v>
+        <v>197617574</v>
       </c>
       <c r="BB74" s="13">
-        <v>204588926</v>
+        <v>214223560</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.25">
@@ -9366,154 +9401,154 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>46343123</v>
+        <v>46021565</v>
       </c>
       <c r="F75" s="11">
-        <v>47231844</v>
+        <v>34772623</v>
       </c>
       <c r="G75" s="11">
-        <v>46021565</v>
+        <v>34900697</v>
       </c>
       <c r="H75" s="11">
-        <v>34772623</v>
+        <v>38120364</v>
       </c>
       <c r="I75" s="11">
-        <v>34900697</v>
+        <v>38171061</v>
       </c>
       <c r="J75" s="11">
-        <v>38120364</v>
+        <v>38638462</v>
       </c>
       <c r="K75" s="11">
-        <v>38171061</v>
+        <v>38560682</v>
       </c>
       <c r="L75" s="11">
-        <v>38638462</v>
+        <v>41328649</v>
       </c>
       <c r="M75" s="11">
-        <v>38560682</v>
+        <v>49460765</v>
       </c>
       <c r="N75" s="11">
-        <v>41328649</v>
+        <v>40539121</v>
       </c>
       <c r="O75" s="11">
-        <v>49460765</v>
+        <v>37767742</v>
       </c>
       <c r="P75" s="11">
-        <v>40539121</v>
+        <v>36594286</v>
       </c>
       <c r="Q75" s="11">
-        <v>37767742</v>
+        <v>37599907</v>
       </c>
       <c r="R75" s="11">
-        <v>36594286</v>
+        <v>39221546</v>
       </c>
       <c r="S75" s="11">
-        <v>37599907</v>
+        <v>38865521</v>
       </c>
       <c r="T75" s="11">
-        <v>39221546</v>
+        <v>43553537</v>
       </c>
       <c r="U75" s="11">
-        <v>38865521</v>
+        <v>46281912</v>
       </c>
       <c r="V75" s="11">
-        <v>43553537</v>
+        <v>53565675</v>
       </c>
       <c r="W75" s="11">
-        <v>46281912</v>
+        <v>61508475</v>
       </c>
       <c r="X75" s="11">
-        <v>53565675</v>
+        <v>66862678</v>
       </c>
       <c r="Y75" s="11">
-        <v>61508475</v>
+        <v>73864154</v>
       </c>
       <c r="Z75" s="11">
-        <v>66862678</v>
+        <v>75991283</v>
       </c>
       <c r="AA75" s="11">
-        <v>73864154</v>
+        <v>94972326</v>
       </c>
       <c r="AB75" s="11">
-        <v>75991283</v>
+        <v>110135354</v>
       </c>
       <c r="AC75" s="11">
-        <v>94972326</v>
+        <v>114162927</v>
       </c>
       <c r="AD75" s="11">
-        <v>110135354</v>
+        <v>121184615</v>
       </c>
       <c r="AE75" s="11">
-        <v>114162927</v>
+        <v>125701783</v>
       </c>
       <c r="AF75" s="11">
-        <v>121184615</v>
+        <v>131023672</v>
       </c>
       <c r="AG75" s="11">
-        <v>125701783</v>
+        <v>153095025</v>
       </c>
       <c r="AH75" s="11">
-        <v>131023672</v>
+        <v>154701471</v>
       </c>
       <c r="AI75" s="11">
-        <v>153095025</v>
+        <v>135290698</v>
       </c>
       <c r="AJ75" s="11">
-        <v>154701471</v>
+        <v>120656738</v>
       </c>
       <c r="AK75" s="11">
-        <v>135290698</v>
+        <v>117344458</v>
       </c>
       <c r="AL75" s="11">
-        <v>120656738</v>
+        <v>115303879</v>
       </c>
       <c r="AM75" s="11">
-        <v>117344458</v>
+        <v>121962687</v>
       </c>
       <c r="AN75" s="11">
-        <v>115303879</v>
+        <v>140865811</v>
       </c>
       <c r="AO75" s="11">
-        <v>121962687</v>
+        <v>136247563</v>
       </c>
       <c r="AP75" s="11">
-        <v>140865811</v>
+        <v>145732490</v>
       </c>
       <c r="AQ75" s="11">
-        <v>136247563</v>
+        <v>152926425</v>
       </c>
       <c r="AR75" s="11">
-        <v>145732490</v>
+        <v>160730249</v>
       </c>
       <c r="AS75" s="11">
-        <v>152926425</v>
+        <v>163209661</v>
       </c>
       <c r="AT75" s="11">
-        <v>160730249</v>
+        <v>167925543</v>
       </c>
       <c r="AU75" s="11">
-        <v>163209661</v>
+        <v>169751510</v>
       </c>
       <c r="AV75" s="11">
-        <v>167925543</v>
+        <v>173488441</v>
       </c>
       <c r="AW75" s="11">
-        <v>169751510</v>
+        <v>172293844</v>
       </c>
       <c r="AX75" s="11">
-        <v>173488441</v>
+        <v>169178550</v>
       </c>
       <c r="AY75" s="11">
-        <v>172293844</v>
+        <v>155442123</v>
       </c>
       <c r="AZ75" s="11">
-        <v>169178550</v>
+        <v>158722089</v>
       </c>
       <c r="BA75" s="11">
-        <v>155442688</v>
+        <v>157340242</v>
       </c>
       <c r="BB75" s="11">
-        <v>158722089</v>
+        <v>157548718</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
@@ -9525,154 +9560,154 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>80764031</v>
+        <v>86713120</v>
       </c>
       <c r="F76" s="13">
-        <v>80790919</v>
+        <v>86587092</v>
       </c>
       <c r="G76" s="13">
-        <v>86713120</v>
+        <v>86242564</v>
       </c>
       <c r="H76" s="13">
-        <v>86587092</v>
+        <v>86134348</v>
       </c>
       <c r="I76" s="13">
-        <v>86242564</v>
+        <v>92205776</v>
       </c>
       <c r="J76" s="13">
-        <v>86134348</v>
+        <v>95778296</v>
       </c>
       <c r="K76" s="13">
-        <v>92205776</v>
+        <v>95825438</v>
       </c>
       <c r="L76" s="13">
-        <v>95778296</v>
+        <v>91114024</v>
       </c>
       <c r="M76" s="13">
-        <v>95825438</v>
+        <v>87401258</v>
       </c>
       <c r="N76" s="13">
-        <v>91114024</v>
+        <v>87678257</v>
       </c>
       <c r="O76" s="13">
-        <v>87401258</v>
+        <v>87869494</v>
       </c>
       <c r="P76" s="13">
-        <v>87678257</v>
+        <v>87560886</v>
       </c>
       <c r="Q76" s="13">
-        <v>87869494</v>
+        <v>87680969</v>
       </c>
       <c r="R76" s="13">
-        <v>87560886</v>
+        <v>87595354</v>
       </c>
       <c r="S76" s="13">
-        <v>87680969</v>
+        <v>92807547</v>
       </c>
       <c r="T76" s="13">
-        <v>87595354</v>
+        <v>92634675</v>
       </c>
       <c r="U76" s="13">
-        <v>92807547</v>
+        <v>85608877</v>
       </c>
       <c r="V76" s="13">
-        <v>92634675</v>
+        <v>94145640</v>
       </c>
       <c r="W76" s="13">
-        <v>85608877</v>
+        <v>113870181</v>
       </c>
       <c r="X76" s="13">
-        <v>94145640</v>
+        <v>121316654</v>
       </c>
       <c r="Y76" s="13">
-        <v>113870181</v>
+        <v>131973190</v>
       </c>
       <c r="Z76" s="13">
-        <v>121316654</v>
+        <v>137680491</v>
       </c>
       <c r="AA76" s="13">
-        <v>131973190</v>
+        <v>147676076</v>
       </c>
       <c r="AB76" s="13">
-        <v>137680491</v>
+        <v>156906887</v>
       </c>
       <c r="AC76" s="13">
-        <v>147676076</v>
+        <v>161679036</v>
       </c>
       <c r="AD76" s="13">
-        <v>156906887</v>
+        <v>159366505</v>
       </c>
       <c r="AE76" s="13">
-        <v>161679036</v>
+        <v>151132948</v>
       </c>
       <c r="AF76" s="13">
-        <v>159366505</v>
+        <v>186294316</v>
       </c>
       <c r="AG76" s="13">
-        <v>151132948</v>
+        <v>195927663</v>
       </c>
       <c r="AH76" s="13">
-        <v>186294316</v>
+        <v>185770696</v>
       </c>
       <c r="AI76" s="13">
-        <v>195927663</v>
+        <v>192290189</v>
       </c>
       <c r="AJ76" s="13">
-        <v>185770696</v>
+        <v>185247285</v>
       </c>
       <c r="AK76" s="13">
-        <v>192290189</v>
+        <v>219021888</v>
       </c>
       <c r="AL76" s="13">
-        <v>185247285</v>
+        <v>190002781</v>
       </c>
       <c r="AM76" s="13">
-        <v>219021888</v>
+        <v>225511417</v>
       </c>
       <c r="AN76" s="13">
-        <v>190002781</v>
+        <v>236847107</v>
       </c>
       <c r="AO76" s="13">
-        <v>225511417</v>
+        <v>237474449</v>
       </c>
       <c r="AP76" s="13">
-        <v>236847107</v>
+        <v>239197974</v>
       </c>
       <c r="AQ76" s="13">
-        <v>237474449</v>
+        <v>232757576</v>
       </c>
       <c r="AR76" s="13">
-        <v>239197974</v>
+        <v>237500000</v>
       </c>
       <c r="AS76" s="13">
-        <v>232757576</v>
+        <v>206106481</v>
       </c>
       <c r="AT76" s="13">
-        <v>237500000</v>
+        <v>256732643</v>
       </c>
       <c r="AU76" s="13">
-        <v>206106481</v>
+        <v>279396975</v>
       </c>
       <c r="AV76" s="13">
-        <v>256732643</v>
+        <v>224688034</v>
       </c>
       <c r="AW76" s="13">
-        <v>279396975</v>
+        <v>239054839</v>
       </c>
       <c r="AX76" s="13">
-        <v>224688034</v>
+        <v>195200000</v>
       </c>
       <c r="AY76" s="13">
-        <v>239054839</v>
+        <v>264960894</v>
       </c>
       <c r="AZ76" s="13">
-        <v>195200000</v>
+        <v>246700236</v>
       </c>
       <c r="BA76" s="13">
-        <v>264960894</v>
+        <v>258730456</v>
       </c>
       <c r="BB76" s="13">
-        <v>246700236</v>
+        <v>255072358</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.25">
@@ -9761,77 +9796,77 @@
       <c r="AD77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF77" s="11" t="s">
-        <v>57</v>
+      <c r="AE77" s="11">
+        <v>152155556</v>
+      </c>
+      <c r="AF77" s="11">
+        <v>165623188</v>
       </c>
       <c r="AG77" s="11">
-        <v>152155556</v>
+        <v>190736086</v>
       </c>
       <c r="AH77" s="11">
-        <v>165623188</v>
-      </c>
-      <c r="AI77" s="11">
-        <v>190736086</v>
+        <v>181136364</v>
+      </c>
+      <c r="AI77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ77" s="11">
-        <v>181136364</v>
-      </c>
-      <c r="AK77" s="11" t="s">
-        <v>57</v>
+        <v>187716418</v>
+      </c>
+      <c r="AK77" s="11">
+        <v>186173913</v>
       </c>
       <c r="AL77" s="11">
-        <v>187716418</v>
+        <v>183349835</v>
       </c>
       <c r="AM77" s="11">
-        <v>186173913</v>
+        <v>192787990</v>
       </c>
       <c r="AN77" s="11">
-        <v>183349835</v>
+        <v>202624685</v>
       </c>
       <c r="AO77" s="11">
-        <v>192787990</v>
+        <v>209508523</v>
       </c>
       <c r="AP77" s="11">
-        <v>202624685</v>
+        <v>215420857</v>
       </c>
       <c r="AQ77" s="11">
-        <v>209508523</v>
+        <v>225278049</v>
       </c>
       <c r="AR77" s="11">
-        <v>215420857</v>
+        <v>251000000</v>
       </c>
       <c r="AS77" s="11">
-        <v>225278049</v>
+        <v>288115044</v>
       </c>
       <c r="AT77" s="11">
-        <v>251000000</v>
+        <v>295812249</v>
       </c>
       <c r="AU77" s="11">
-        <v>288115044</v>
+        <v>305331579</v>
       </c>
       <c r="AV77" s="11">
-        <v>295812249</v>
+        <v>273379747</v>
       </c>
       <c r="AW77" s="11">
-        <v>305331579</v>
+        <v>243343990</v>
       </c>
       <c r="AX77" s="11">
-        <v>273379747</v>
+        <v>222620741</v>
       </c>
       <c r="AY77" s="11">
-        <v>243343990</v>
+        <v>212337920</v>
       </c>
       <c r="AZ77" s="11">
-        <v>222620741</v>
+        <v>201982558</v>
       </c>
       <c r="BA77" s="11">
-        <v>212337920</v>
+        <v>233316667</v>
       </c>
       <c r="BB77" s="11">
-        <v>201982558</v>
+        <v>232405854</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
@@ -9863,32 +9898,32 @@
       <c r="K78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>57</v>
+      <c r="L78" s="13">
+        <v>62980000</v>
+      </c>
+      <c r="M78" s="13">
+        <v>0</v>
       </c>
       <c r="N78" s="13">
-        <v>62980000</v>
+        <v>0</v>
       </c>
       <c r="O78" s="13">
         <v>0</v>
       </c>
-      <c r="P78" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="13">
-        <v>0</v>
-      </c>
-      <c r="R78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S78" s="13" t="s">
-        <v>57</v>
+      <c r="P78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R78" s="13">
+        <v>48910000</v>
+      </c>
+      <c r="S78" s="13">
+        <v>0</v>
       </c>
       <c r="T78" s="13">
-        <v>48910000</v>
+        <v>0</v>
       </c>
       <c r="U78" s="13">
         <v>0</v>
@@ -9909,16 +9944,16 @@
         <v>0</v>
       </c>
       <c r="AA78" s="13">
-        <v>0</v>
+        <v>57800000</v>
       </c>
       <c r="AB78" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="13">
-        <v>57800000</v>
-      </c>
-      <c r="AD78" s="13">
         <v>62000000</v>
+      </c>
+      <c r="AC78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE78" s="13" t="s">
         <v>57</v>
@@ -10127,11 +10162,11 @@
       <c r="AA80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB80" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC80" s="11" t="s">
-        <v>57</v>
+      <c r="AB80" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="11">
+        <v>0</v>
       </c>
       <c r="AD80" s="11">
         <v>0</v>
@@ -10163,11 +10198,11 @@
       <c r="AM80" s="11">
         <v>0</v>
       </c>
-      <c r="AN80" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO80" s="11">
-        <v>0</v>
+      <c r="AN80" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO80" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP80" s="11" t="s">
         <v>57</v>

--- a/database/industries/kaghaz/chekapa/product/monthly.xlsx
+++ b/database/industries/kaghaz/chekapa/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="79">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12" t="n">
         <v>0</v>
@@ -3242,16 +3242,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>321</v>
+        <v>120</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="12" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W11" s="12" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="12" t="n">
         <v>0</v>
@@ -3352,14 +3352,14 @@
       <c r="AW11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX11" s="12" t="n">
-        <v>0</v>
+      <c r="AX11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ11" s="13" t="s">
-        <v>57</v>
+      <c r="AZ11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA11" s="13" t="n">
         <v>0</v>
@@ -3377,154 +3377,154 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
+        <v>1690</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>1650</v>
+      </c>
+      <c r="H12" s="15" t="n">
         <v>1910</v>
       </c>
-      <c r="F12" s="15" t="n">
-        <v>1690</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>1610</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>1650</v>
-      </c>
       <c r="I12" s="15" t="n">
-        <v>1910</v>
+        <v>610</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>560</v>
+        <v>158</v>
       </c>
       <c r="L12" s="15" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="M12" s="15" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>341</v>
+        <v>769</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>769</v>
+        <v>625</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>625</v>
+        <v>125</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>125</v>
+        <v>1100</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>1100</v>
+        <v>4010</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>4010</v>
+        <v>2374</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>2374</v>
+        <v>2010</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>2010</v>
+        <v>317</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>1901</v>
+        <v>284</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>331</v>
+        <v>748</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>748</v>
+        <v>1202</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>1202</v>
+        <v>206</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>206</v>
+        <v>1204</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>1204</v>
+        <v>1018</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>1018</v>
+        <v>841</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>841</v>
+        <v>1416</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>1416</v>
+        <v>2367</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>2367</v>
+        <v>3756</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>3756</v>
+        <v>3596</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>3596</v>
+        <v>1309</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>1309</v>
+        <v>3061</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>3061</v>
+        <v>2868</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>2868</v>
+        <v>1721</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>1721</v>
+        <v>3500</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>3500</v>
+        <v>1640</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>1640</v>
+        <v>1199</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>1199</v>
+        <v>1256</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>1256</v>
+        <v>2333</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>2333</v>
+        <v>1485</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>1485</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,154 +3536,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>1610</v>
+        <v>1780</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>1780</v>
+        <v>1850</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>1850</v>
+        <v>1684</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>1684</v>
+        <v>1500</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>1450</v>
+        <v>1420</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>1420</v>
+        <v>1480</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>1480</v>
+        <v>2232</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>2232</v>
+        <v>1950</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>1950</v>
+        <v>1628</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>1628</v>
+        <v>1752</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>1752</v>
+        <v>1685</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>1685</v>
+        <v>1824</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>1824</v>
+        <v>1250</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>1250</v>
+        <v>2115</v>
       </c>
       <c r="T13" s="13" t="n">
+        <v>1098</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>1983</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>2242</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>2091</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>1734</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>2059</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>1394</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>1917</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>1960</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>1946</v>
+      </c>
+      <c r="AE13" s="13" t="n">
         <v>2115</v>
       </c>
-      <c r="U13" s="13" t="n">
-        <v>1098</v>
-      </c>
-      <c r="V13" s="13" t="n">
-        <v>1983</v>
-      </c>
-      <c r="W13" s="13" t="n">
-        <v>2242</v>
-      </c>
-      <c r="X13" s="13" t="n">
-        <v>2091</v>
-      </c>
-      <c r="Y13" s="13" t="n">
-        <v>1734</v>
-      </c>
-      <c r="Z13" s="13" t="n">
-        <v>2059</v>
-      </c>
-      <c r="AA13" s="13" t="n">
-        <v>1394</v>
-      </c>
-      <c r="AB13" s="13" t="n">
-        <v>1917</v>
-      </c>
-      <c r="AC13" s="13" t="n">
-        <v>1849</v>
-      </c>
-      <c r="AD13" s="13" t="n">
-        <v>1960</v>
-      </c>
-      <c r="AE13" s="13" t="n">
-        <v>1946</v>
-      </c>
       <c r="AF13" s="13" t="n">
-        <v>2115</v>
+        <v>1996</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>1996</v>
+        <v>1007</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>1007</v>
+        <v>822</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>822</v>
+        <v>1710</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>1710</v>
+        <v>1795</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>1795</v>
+        <v>1888</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>1888</v>
+        <v>1650</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>1650</v>
+        <v>2209</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>2209</v>
+        <v>2102</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>2102</v>
+        <v>2003</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>2003</v>
+        <v>2137</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>2137</v>
+        <v>2071</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>2071</v>
+        <v>1905</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>1905</v>
+        <v>2511</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>2511</v>
+        <v>2350</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>2350</v>
+        <v>1999</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>1999</v>
+        <v>1763</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>1763</v>
+        <v>1637</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>1637</v>
+        <v>1694</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>1694</v>
+        <v>1705</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>1705</v>
+        <v>1962</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>1962</v>
+        <v>1741</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>1741</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,154 +3695,154 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>1890</v>
+        <v>1510</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>1510</v>
+        <v>1720</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>1720</v>
+        <v>1642</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>1642</v>
+        <v>1750</v>
       </c>
       <c r="I14" s="15" t="n">
-        <v>1750</v>
+        <v>2920</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>2920</v>
+        <v>2790</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>2790</v>
+        <v>3125</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>3125</v>
+        <v>2474</v>
       </c>
       <c r="M14" s="15" t="n">
-        <v>2474</v>
+        <v>2510</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>2510</v>
+        <v>2462</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>2462</v>
+        <v>2680</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>2680</v>
+        <v>2314</v>
       </c>
       <c r="Q14" s="15" t="n">
-        <v>2314</v>
+        <v>1825</v>
       </c>
       <c r="R14" s="15" t="n">
-        <v>1825</v>
+        <v>1270</v>
       </c>
       <c r="S14" s="15" t="n">
-        <v>1270</v>
+        <v>1568</v>
       </c>
       <c r="T14" s="15" t="n">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>1446</v>
+        <v>1232</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>1232</v>
+        <v>3082</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>3082</v>
+        <v>3346</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>3346</v>
+        <v>3311</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>3311</v>
+        <v>3287</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>3287</v>
+        <v>3780</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>3780</v>
+        <v>3030</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>3030</v>
+        <v>3146</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>3146</v>
+        <v>1918</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>1918</v>
+        <v>2115</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>2115</v>
+        <v>3342</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>3342</v>
+        <v>2136</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>2136</v>
+        <v>2021</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>2021</v>
+        <v>2157</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>2157</v>
+        <v>2673</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>2673</v>
+        <v>2925</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>2925</v>
+        <v>1553</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>1553</v>
+        <v>1966</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>1966</v>
+        <v>1055</v>
       </c>
       <c r="AO14" s="15" t="n">
-        <v>1055</v>
+        <v>80</v>
       </c>
       <c r="AP14" s="15" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>1</v>
+        <v>730</v>
       </c>
       <c r="AR14" s="15" t="n">
-        <v>730</v>
+        <v>1743</v>
       </c>
       <c r="AS14" s="15" t="n">
-        <v>1743</v>
+        <v>389</v>
       </c>
       <c r="AT14" s="15" t="n">
-        <v>389</v>
+        <v>521</v>
       </c>
       <c r="AU14" s="15" t="n">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="AV14" s="15" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="15" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>852</v>
+        <v>2840</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>2840</v>
+        <v>1778</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>1778</v>
+        <v>557</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>557</v>
+        <v>278</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,83 +3925,83 @@
       <c r="AB15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="13" t="s">
-        <v>57</v>
+      <c r="AC15" s="13" t="n">
+        <v>848</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>848</v>
+        <v>1309</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>1309</v>
+        <v>47</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>299</v>
+        <v>1211</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>1211</v>
+        <v>246</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>395</v>
+        <v>1112</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>1112</v>
+        <v>373</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>275</v>
+        <v>991</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>972</v>
+        <v>208</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>208</v>
+        <v>2099</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>2099</v>
+        <v>1161</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>1149</v>
+        <v>44</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>233</v>
+        <v>1207</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>1207</v>
+        <v>1889</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>1889</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,29 +4027,29 @@
       <c r="I16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>57</v>
+      <c r="J16" s="16" t="n">
+        <v>100</v>
       </c>
       <c r="K16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="Q16" s="16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R16" s="16" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="16" t="n">
         <v>0</v>
@@ -4147,8 +4147,8 @@
       <c r="AW16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX16" s="16" t="n">
-        <v>0</v>
+      <c r="AX16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY16" s="16" t="s">
         <v>57</v>
@@ -4291,8 +4291,8 @@
       <c r="Y18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>57</v>
+      <c r="Z18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA18" s="13" t="n">
         <v>0</v>
@@ -4306,26 +4306,26 @@
       <c r="AD18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="13" t="s">
-        <v>57</v>
+      <c r="AE18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH18" s="13" t="n">
-        <v>0</v>
+      <c r="AH18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK18" s="13" t="n">
-        <v>0</v>
+      <c r="AJ18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL18" s="13" t="s">
         <v>57</v>
@@ -4448,8 +4448,8 @@
       <c r="Y19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="18" t="s">
-        <v>57</v>
+      <c r="Z19" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AA19" s="18" t="n">
         <v>0</v>
@@ -4543,154 +4543,154 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="n">
-        <v>5480</v>
+        <v>4980</v>
       </c>
       <c r="F20" s="20" t="n">
+        <v>5195</v>
+      </c>
+      <c r="G20" s="20" t="n">
+        <v>5231</v>
+      </c>
+      <c r="H20" s="20" t="n">
+        <v>5160</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <v>4980</v>
       </c>
-      <c r="G20" s="20" t="n">
-        <v>5195</v>
-      </c>
-      <c r="H20" s="20" t="n">
-        <v>5231</v>
-      </c>
-      <c r="I20" s="20" t="n">
-        <v>5160</v>
-      </c>
       <c r="J20" s="20" t="n">
-        <v>4980</v>
+        <v>4870</v>
       </c>
       <c r="K20" s="20" t="n">
-        <v>4870</v>
+        <v>4763</v>
       </c>
       <c r="L20" s="20" t="n">
-        <v>4763</v>
+        <v>4803</v>
       </c>
       <c r="M20" s="20" t="n">
-        <v>4803</v>
+        <v>4970</v>
       </c>
       <c r="N20" s="20" t="n">
-        <v>4970</v>
+        <v>4869</v>
       </c>
       <c r="O20" s="20" t="n">
-        <v>4869</v>
+        <v>4893</v>
       </c>
       <c r="P20" s="20" t="n">
-        <v>4893</v>
+        <v>4868</v>
       </c>
       <c r="Q20" s="20" t="n">
-        <v>4868</v>
+        <v>4274</v>
       </c>
       <c r="R20" s="20" t="n">
-        <v>4274</v>
+        <v>2645</v>
       </c>
       <c r="S20" s="20" t="n">
-        <v>2645</v>
+        <v>4783</v>
       </c>
       <c r="T20" s="20" t="n">
-        <v>4783</v>
+        <v>5108</v>
       </c>
       <c r="U20" s="20" t="n">
-        <v>5108</v>
+        <v>5806</v>
       </c>
       <c r="V20" s="20" t="n">
+        <v>5484</v>
+      </c>
+      <c r="W20" s="20" t="n">
+        <v>5490</v>
+      </c>
+      <c r="X20" s="20" t="n">
+        <v>5080</v>
+      </c>
+      <c r="Y20" s="20" t="n">
+        <v>5882</v>
+      </c>
+      <c r="Z20" s="20" t="n">
+        <v>4881</v>
+      </c>
+      <c r="AA20" s="20" t="n">
         <v>5806</v>
       </c>
-      <c r="W20" s="20" t="n">
-        <v>5484</v>
-      </c>
-      <c r="X20" s="20" t="n">
-        <v>5490</v>
-      </c>
-      <c r="Y20" s="20" t="n">
-        <v>5080</v>
-      </c>
-      <c r="Z20" s="20" t="n">
-        <v>5882</v>
-      </c>
-      <c r="AA20" s="20" t="n">
-        <v>4881</v>
-      </c>
       <c r="AB20" s="20" t="n">
-        <v>5806</v>
+        <v>5253</v>
       </c>
       <c r="AC20" s="20" t="n">
-        <v>5253</v>
+        <v>6091</v>
       </c>
       <c r="AD20" s="20" t="n">
-        <v>6091</v>
+        <v>5173</v>
       </c>
       <c r="AE20" s="20" t="n">
-        <v>5173</v>
+        <v>6178</v>
       </c>
       <c r="AF20" s="20" t="n">
-        <v>6178</v>
+        <v>5625</v>
       </c>
       <c r="AG20" s="20" t="n">
-        <v>5625</v>
+        <v>3520</v>
       </c>
       <c r="AH20" s="20" t="n">
-        <v>3520</v>
+        <v>3903</v>
       </c>
       <c r="AI20" s="20" t="n">
-        <v>3903</v>
+        <v>5084</v>
       </c>
       <c r="AJ20" s="20" t="n">
-        <v>5084</v>
+        <v>4973</v>
       </c>
       <c r="AK20" s="20" t="n">
-        <v>4973</v>
+        <v>7228</v>
       </c>
       <c r="AL20" s="20" t="n">
-        <v>7228</v>
+        <v>4467</v>
       </c>
       <c r="AM20" s="20" t="n">
-        <v>4467</v>
+        <v>5411</v>
       </c>
       <c r="AN20" s="20" t="n">
-        <v>5411</v>
+        <v>5703</v>
       </c>
       <c r="AO20" s="20" t="n">
-        <v>5703</v>
+        <v>4823</v>
       </c>
       <c r="AP20" s="20" t="n">
-        <v>4823</v>
+        <v>5894</v>
       </c>
       <c r="AQ20" s="20" t="n">
-        <v>5894</v>
+        <v>6672</v>
       </c>
       <c r="AR20" s="20" t="n">
-        <v>6672</v>
+        <v>5948</v>
       </c>
       <c r="AS20" s="20" t="n">
-        <v>5948</v>
+        <v>6933</v>
       </c>
       <c r="AT20" s="20" t="n">
-        <v>6933</v>
+        <v>5947</v>
       </c>
       <c r="AU20" s="20" t="n">
-        <v>5947</v>
+        <v>6100</v>
       </c>
       <c r="AV20" s="20" t="n">
-        <v>6100</v>
+        <v>6424</v>
       </c>
       <c r="AW20" s="20" t="n">
-        <v>6424</v>
+        <v>5278</v>
       </c>
       <c r="AX20" s="20" t="n">
-        <v>5278</v>
+        <v>5777</v>
       </c>
       <c r="AY20" s="20" t="n">
-        <v>5777</v>
+        <v>4972</v>
       </c>
       <c r="AZ20" s="20" t="n">
-        <v>4972</v>
+        <v>6059</v>
       </c>
       <c r="BA20" s="20" t="n">
-        <v>6059</v>
+        <v>5393</v>
       </c>
       <c r="BB20" s="20" t="n">
-        <v>5393</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,73 +5136,73 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F27" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>253</v>
+      </c>
+      <c r="H27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13" t="n">
+        <v>344</v>
+      </c>
+      <c r="N27" s="13" t="n">
+        <v>385</v>
+      </c>
+      <c r="O27" s="13" t="n">
+        <v>115</v>
+      </c>
+      <c r="P27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="V27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="H27" s="13" t="n">
-        <v>253</v>
-      </c>
-      <c r="I27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="13" t="n">
-        <v>344</v>
-      </c>
-      <c r="O27" s="13" t="n">
-        <v>385</v>
-      </c>
-      <c r="P27" s="13" t="n">
-        <v>115</v>
-      </c>
-      <c r="Q27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="W27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AA27" s="13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="13" t="n">
         <v>0</v>
@@ -5232,19 +5232,19 @@
         <v>0</v>
       </c>
       <c r="AK27" s="13" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AL27" s="13" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN27" s="13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO27" s="13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="13" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
       <c r="AW27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX27" s="13" t="n">
-        <v>0</v>
+      <c r="AX27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ27" s="13" t="s">
-        <v>57</v>
+      <c r="AZ27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA27" s="13" t="n">
         <v>0</v>
@@ -5295,154 +5295,154 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="n">
-        <v>1968</v>
+        <v>2068</v>
       </c>
       <c r="F28" s="16" t="n">
-        <v>2068</v>
+        <v>1380</v>
       </c>
       <c r="G28" s="16" t="n">
-        <v>1380</v>
+        <v>2049</v>
       </c>
       <c r="H28" s="16" t="n">
-        <v>2049</v>
+        <v>2208</v>
       </c>
       <c r="I28" s="16" t="n">
-        <v>2208</v>
+        <v>982</v>
       </c>
       <c r="J28" s="16" t="n">
-        <v>982</v>
+        <v>524</v>
       </c>
       <c r="K28" s="16" t="n">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="L28" s="16" t="n">
-        <v>463</v>
+        <v>320</v>
       </c>
       <c r="M28" s="16" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N28" s="16" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="O28" s="16" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P28" s="16" t="n">
-        <v>354</v>
+        <v>1122</v>
       </c>
       <c r="Q28" s="16" t="n">
-        <v>1122</v>
+        <v>596</v>
       </c>
       <c r="R28" s="16" t="n">
-        <v>596</v>
+        <v>478</v>
       </c>
       <c r="S28" s="16" t="n">
-        <v>478</v>
+        <v>670</v>
       </c>
       <c r="T28" s="16" t="n">
-        <v>670</v>
+        <v>1612</v>
       </c>
       <c r="U28" s="16" t="n">
-        <v>1612</v>
+        <v>1074</v>
       </c>
       <c r="V28" s="16" t="n">
-        <v>1074</v>
+        <v>1519</v>
       </c>
       <c r="W28" s="16" t="n">
-        <v>1519</v>
+        <v>1364</v>
       </c>
       <c r="X28" s="16" t="n">
-        <v>1364</v>
+        <v>1662</v>
       </c>
       <c r="Y28" s="16" t="n">
-        <v>1662</v>
+        <v>605</v>
       </c>
       <c r="Z28" s="16" t="n">
-        <v>605</v>
+        <v>49</v>
       </c>
       <c r="AA28" s="16" t="n">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="AB28" s="16" t="n">
-        <v>92</v>
+        <v>788</v>
       </c>
       <c r="AC28" s="16" t="n">
-        <v>788</v>
+        <v>570</v>
       </c>
       <c r="AD28" s="16" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="16" t="n">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="AF28" s="16" t="n">
-        <v>774</v>
+        <v>615</v>
       </c>
       <c r="AG28" s="16" t="n">
-        <v>615</v>
+        <v>465</v>
       </c>
       <c r="AH28" s="16" t="n">
-        <v>465</v>
+        <v>1477</v>
       </c>
       <c r="AI28" s="16" t="n">
-        <v>1477</v>
+        <v>704</v>
       </c>
       <c r="AJ28" s="16" t="n">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AK28" s="16" t="n">
-        <v>682</v>
+        <v>1005</v>
       </c>
       <c r="AL28" s="16" t="n">
-        <v>1005</v>
+        <v>906</v>
       </c>
       <c r="AM28" s="16" t="n">
-        <v>906</v>
+        <v>750</v>
       </c>
       <c r="AN28" s="16" t="n">
-        <v>750</v>
+        <v>1547</v>
       </c>
       <c r="AO28" s="16" t="n">
-        <v>1547</v>
+        <v>2018</v>
       </c>
       <c r="AP28" s="16" t="n">
-        <v>2018</v>
+        <v>3857</v>
       </c>
       <c r="AQ28" s="16" t="n">
-        <v>3857</v>
+        <v>3847</v>
       </c>
       <c r="AR28" s="16" t="n">
-        <v>3847</v>
+        <v>1263</v>
       </c>
       <c r="AS28" s="16" t="n">
-        <v>1263</v>
+        <v>3017</v>
       </c>
       <c r="AT28" s="16" t="n">
-        <v>3017</v>
+        <v>2873</v>
       </c>
       <c r="AU28" s="16" t="n">
-        <v>2873</v>
+        <v>2434</v>
       </c>
       <c r="AV28" s="16" t="n">
-        <v>2434</v>
+        <v>2188</v>
       </c>
       <c r="AW28" s="16" t="n">
-        <v>2188</v>
+        <v>1722</v>
       </c>
       <c r="AX28" s="16" t="n">
-        <v>1722</v>
+        <v>1192</v>
       </c>
       <c r="AY28" s="16" t="n">
-        <v>1192</v>
+        <v>2003</v>
       </c>
       <c r="AZ28" s="16" t="n">
-        <v>2003</v>
+        <v>2326</v>
       </c>
       <c r="BA28" s="16" t="n">
-        <v>2326</v>
+        <v>1386</v>
       </c>
       <c r="BB28" s="16" t="n">
-        <v>1386</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,154 +5454,154 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="n">
-        <v>1746</v>
+        <v>1722</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1722</v>
+        <v>1429</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>1429</v>
+        <v>1631</v>
       </c>
       <c r="H29" s="13" t="n">
-        <v>1631</v>
+        <v>1300</v>
       </c>
       <c r="I29" s="13" t="n">
-        <v>1300</v>
+        <v>997</v>
       </c>
       <c r="J29" s="13" t="n">
-        <v>997</v>
+        <v>925</v>
       </c>
       <c r="K29" s="13" t="n">
-        <v>925</v>
+        <v>1491</v>
       </c>
       <c r="L29" s="13" t="n">
-        <v>1491</v>
+        <v>1866</v>
       </c>
       <c r="M29" s="13" t="n">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="N29" s="13" t="n">
-        <v>1860</v>
+        <v>1925</v>
       </c>
       <c r="O29" s="13" t="n">
-        <v>1925</v>
+        <v>2142</v>
       </c>
       <c r="P29" s="13" t="n">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="Q29" s="13" t="n">
-        <v>2135</v>
+        <v>1978</v>
       </c>
       <c r="R29" s="13" t="n">
-        <v>1978</v>
+        <v>1046</v>
       </c>
       <c r="S29" s="13" t="n">
-        <v>1046</v>
+        <v>2029</v>
       </c>
       <c r="T29" s="13" t="n">
-        <v>2029</v>
+        <v>1614</v>
       </c>
       <c r="U29" s="13" t="n">
-        <v>1614</v>
+        <v>2242</v>
       </c>
       <c r="V29" s="13" t="n">
-        <v>2242</v>
+        <v>2323</v>
       </c>
       <c r="W29" s="13" t="n">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="X29" s="13" t="n">
-        <v>2282</v>
+        <v>1606</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>1606</v>
+        <v>2132</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>2132</v>
+        <v>1485</v>
       </c>
       <c r="AA29" s="13" t="n">
-        <v>1485</v>
+        <v>1872</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>1872</v>
+        <v>1755</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>1755</v>
+        <v>1851</v>
       </c>
       <c r="AD29" s="13" t="n">
-        <v>1851</v>
+        <v>1563</v>
       </c>
       <c r="AE29" s="13" t="n">
-        <v>1563</v>
+        <v>2010</v>
       </c>
       <c r="AF29" s="13" t="n">
-        <v>2010</v>
+        <v>680</v>
       </c>
       <c r="AG29" s="13" t="n">
-        <v>680</v>
+        <v>1118</v>
       </c>
       <c r="AH29" s="13" t="n">
-        <v>1118</v>
+        <v>1410</v>
       </c>
       <c r="AI29" s="13" t="n">
-        <v>1410</v>
+        <v>2517</v>
       </c>
       <c r="AJ29" s="13" t="n">
-        <v>2517</v>
+        <v>1856</v>
       </c>
       <c r="AK29" s="13" t="n">
-        <v>1856</v>
+        <v>2412</v>
       </c>
       <c r="AL29" s="13" t="n">
-        <v>2412</v>
+        <v>1714</v>
       </c>
       <c r="AM29" s="13" t="n">
-        <v>1714</v>
+        <v>2359</v>
       </c>
       <c r="AN29" s="13" t="n">
-        <v>2359</v>
+        <v>2056</v>
       </c>
       <c r="AO29" s="13" t="n">
-        <v>2056</v>
+        <v>1930</v>
       </c>
       <c r="AP29" s="13" t="n">
-        <v>1930</v>
+        <v>2291</v>
       </c>
       <c r="AQ29" s="13" t="n">
-        <v>2291</v>
+        <v>1946</v>
       </c>
       <c r="AR29" s="13" t="n">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="AS29" s="13" t="n">
-        <v>1934</v>
+        <v>2483</v>
       </c>
       <c r="AT29" s="13" t="n">
-        <v>2483</v>
+        <v>2379</v>
       </c>
       <c r="AU29" s="13" t="n">
-        <v>2379</v>
+        <v>1933</v>
       </c>
       <c r="AV29" s="13" t="n">
-        <v>1933</v>
+        <v>1641</v>
       </c>
       <c r="AW29" s="13" t="n">
-        <v>1641</v>
+        <v>1771</v>
       </c>
       <c r="AX29" s="13" t="n">
-        <v>1771</v>
+        <v>1666</v>
       </c>
       <c r="AY29" s="13" t="n">
-        <v>1666</v>
+        <v>1737</v>
       </c>
       <c r="AZ29" s="13" t="n">
-        <v>1737</v>
+        <v>1950</v>
       </c>
       <c r="BA29" s="13" t="n">
-        <v>1950</v>
+        <v>1739</v>
       </c>
       <c r="BB29" s="13" t="n">
-        <v>1739</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,154 +5613,154 @@
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="n">
-        <v>1441</v>
+        <v>1513</v>
       </c>
       <c r="F30" s="16" t="n">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="G30" s="16" t="n">
-        <v>1511</v>
+        <v>1385</v>
       </c>
       <c r="H30" s="16" t="n">
-        <v>1385</v>
+        <v>1502</v>
       </c>
       <c r="I30" s="16" t="n">
-        <v>1502</v>
+        <v>2681</v>
       </c>
       <c r="J30" s="16" t="n">
-        <v>2681</v>
+        <v>3280</v>
       </c>
       <c r="K30" s="16" t="n">
-        <v>3280</v>
+        <v>3180</v>
       </c>
       <c r="L30" s="16" t="n">
-        <v>3180</v>
+        <v>2502</v>
       </c>
       <c r="M30" s="16" t="n">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="N30" s="16" t="n">
-        <v>2452</v>
+        <v>2168</v>
       </c>
       <c r="O30" s="16" t="n">
-        <v>2168</v>
+        <v>2354</v>
       </c>
       <c r="P30" s="16" t="n">
-        <v>2354</v>
+        <v>1851</v>
       </c>
       <c r="Q30" s="16" t="n">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="R30" s="16" t="n">
-        <v>1855</v>
+        <v>969</v>
       </c>
       <c r="S30" s="16" t="n">
-        <v>969</v>
+        <v>1915</v>
       </c>
       <c r="T30" s="16" t="n">
-        <v>1915</v>
+        <v>1078</v>
       </c>
       <c r="U30" s="16" t="n">
-        <v>1078</v>
+        <v>1764</v>
       </c>
       <c r="V30" s="16" t="n">
-        <v>1764</v>
+        <v>1339</v>
       </c>
       <c r="W30" s="16" t="n">
-        <v>1339</v>
+        <v>2984</v>
       </c>
       <c r="X30" s="16" t="n">
-        <v>2984</v>
+        <v>3424</v>
       </c>
       <c r="Y30" s="16" t="n">
-        <v>3424</v>
+        <v>3578</v>
       </c>
       <c r="Z30" s="16" t="n">
-        <v>3578</v>
+        <v>3383</v>
       </c>
       <c r="AA30" s="16" t="n">
-        <v>3383</v>
+        <v>3611</v>
       </c>
       <c r="AB30" s="16" t="n">
-        <v>3611</v>
+        <v>2884</v>
       </c>
       <c r="AC30" s="16" t="n">
-        <v>2884</v>
+        <v>3114</v>
       </c>
       <c r="AD30" s="16" t="n">
-        <v>3114</v>
+        <v>1777</v>
       </c>
       <c r="AE30" s="16" t="n">
-        <v>1777</v>
+        <v>3304</v>
       </c>
       <c r="AF30" s="16" t="n">
-        <v>3304</v>
+        <v>2730</v>
       </c>
       <c r="AG30" s="16" t="n">
-        <v>2730</v>
+        <v>2650</v>
       </c>
       <c r="AH30" s="16" t="n">
-        <v>2650</v>
+        <v>2026</v>
       </c>
       <c r="AI30" s="16" t="n">
-        <v>2026</v>
+        <v>2193</v>
       </c>
       <c r="AJ30" s="16" t="n">
-        <v>2193</v>
+        <v>2877</v>
       </c>
       <c r="AK30" s="16" t="n">
-        <v>2877</v>
+        <v>2321</v>
       </c>
       <c r="AL30" s="16" t="n">
-        <v>2321</v>
+        <v>1694</v>
       </c>
       <c r="AM30" s="16" t="n">
-        <v>1694</v>
+        <v>1996</v>
       </c>
       <c r="AN30" s="16" t="n">
-        <v>1996</v>
+        <v>1086</v>
       </c>
       <c r="AO30" s="16" t="n">
-        <v>1086</v>
+        <v>66</v>
       </c>
       <c r="AP30" s="16" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="AQ30" s="16" t="n">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="AR30" s="16" t="n">
-        <v>648</v>
+        <v>1642</v>
       </c>
       <c r="AS30" s="16" t="n">
-        <v>1642</v>
+        <v>529</v>
       </c>
       <c r="AT30" s="16" t="n">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="AU30" s="16" t="n">
-        <v>468</v>
+        <v>310</v>
       </c>
       <c r="AV30" s="16" t="n">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="AW30" s="16" t="n">
-        <v>25</v>
+        <v>716</v>
       </c>
       <c r="AX30" s="16" t="n">
-        <v>716</v>
+        <v>2542</v>
       </c>
       <c r="AY30" s="16" t="n">
-        <v>2542</v>
+        <v>1228</v>
       </c>
       <c r="AZ30" s="16" t="n">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="BA30" s="16" t="n">
-        <v>1230</v>
+        <v>581</v>
       </c>
       <c r="BB30" s="16" t="n">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,83 +5843,83 @@
       <c r="AB31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC31" s="13" t="s">
-        <v>57</v>
+      <c r="AC31" s="13" t="n">
+        <v>540</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>540</v>
+        <v>1311</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>1311</v>
+        <v>557</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>557</v>
+        <v>22</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>335</v>
+        <v>69</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>303</v>
+        <v>816</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>816</v>
+        <v>397</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>352</v>
+        <v>1074</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>1074</v>
+        <v>410</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>226</v>
+        <v>996</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>996</v>
+        <v>760</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>760</v>
+        <v>395</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>395</v>
+        <v>1564</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>1564</v>
+        <v>1350</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>1350</v>
+        <v>1308</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>1308</v>
+        <v>172</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>180</v>
+        <v>1264</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>1264</v>
+        <v>1749</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>1749</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,29 +5945,29 @@
       <c r="I32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>57</v>
+      <c r="J32" s="16" t="n">
+        <v>100</v>
       </c>
       <c r="K32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="Q32" s="16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="16" t="n">
         <v>0</v>
@@ -5991,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="Y32" s="16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z32" s="16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA32" s="16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="16" t="n">
         <v>0</v>
@@ -6065,8 +6065,8 @@
       <c r="AW32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX32" s="16" t="n">
-        <v>0</v>
+      <c r="AX32" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY32" s="16" t="s">
         <v>57</v>
@@ -6209,8 +6209,8 @@
       <c r="Y34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z34" s="13" t="s">
-        <v>57</v>
+      <c r="Z34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA34" s="13" t="n">
         <v>0</v>
@@ -6224,26 +6224,26 @@
       <c r="AD34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="13" t="s">
-        <v>57</v>
+      <c r="AE34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH34" s="13" t="n">
-        <v>0</v>
+      <c r="AH34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK34" s="13" t="n">
-        <v>0</v>
+      <c r="AJ34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL34" s="13" t="s">
         <v>57</v>
@@ -6366,8 +6366,8 @@
       <c r="Y35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Z35" s="18" t="s">
-        <v>57</v>
+      <c r="Z35" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AA35" s="18" t="n">
         <v>0</v>
@@ -6591,32 +6591,32 @@
       <c r="AB37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC37" s="13" t="s">
-        <v>57</v>
+      <c r="AC37" s="13" t="n">
+        <v>-4</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AE37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH37" s="13" t="n">
-        <v>0</v>
+      <c r="AH37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK37" s="13" t="n">
-        <v>0</v>
+      <c r="AJ37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL37" s="13" t="s">
         <v>57</v>
@@ -6627,23 +6627,23 @@
       <c r="AN37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO37" s="13" t="s">
-        <v>57</v>
+      <c r="AO37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP37" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="13" t="n">
         <v>-44</v>
       </c>
-      <c r="AS37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT37" s="13" t="n">
-        <v>0</v>
+      <c r="AR37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU37" s="13" t="s">
         <v>57</v>
@@ -6651,11 +6651,11 @@
       <c r="AV37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX37" s="13" t="n">
-        <v>0</v>
+      <c r="AW37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY37" s="13" t="s">
         <v>57</v>
@@ -6768,14 +6768,14 @@
       <c r="AH38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AI38" s="16" t="s">
-        <v>57</v>
+      <c r="AI38" s="16" t="n">
+        <v>-44</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>-44</v>
-      </c>
-      <c r="AK38" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AL38" s="16" t="s">
         <v>57</v>
@@ -6810,11 +6810,11 @@
       <c r="AV38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AW38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX38" s="16" t="n">
+      <c r="AW38" s="16" t="n">
         <v>-36</v>
+      </c>
+      <c r="AX38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY38" s="16" t="s">
         <v>57</v>
@@ -6933,11 +6933,11 @@
       <c r="AJ39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL39" s="13" t="n">
-        <v>0</v>
+      <c r="AK39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM39" s="13" t="s">
         <v>57</v>
@@ -6957,11 +6957,11 @@
       <c r="AR39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT39" s="13" t="n">
-        <v>0</v>
+      <c r="AS39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU39" s="13" t="s">
         <v>57</v>
@@ -7128,23 +7128,23 @@
       <c r="AV40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AW40" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX40" s="16" t="n">
+      <c r="AW40" s="16" t="n">
         <v>-9</v>
       </c>
+      <c r="AX40" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AY40" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AZ40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA40" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB40" s="16" t="n">
+      <c r="BA40" s="16" t="n">
         <v>-43</v>
+      </c>
+      <c r="BB40" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,8 +7216,8 @@
       <c r="Y41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Z41" s="20" t="s">
-        <v>57</v>
+      <c r="Z41" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AA41" s="20" t="n">
         <v>0</v>
@@ -7226,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AD41" s="20" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="20" t="n">
         <v>0</v>
@@ -7244,34 +7244,34 @@
         <v>0</v>
       </c>
       <c r="AI41" s="20" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AJ41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="20" t="n">
         <v>-44</v>
       </c>
-      <c r="AK41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="AR41" s="20" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="20" t="n">
         <v>0</v>
@@ -7286,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="AW41" s="20" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AX41" s="20" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="20" t="n">
         <v>0</v>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="BA41" s="20" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="BB41" s="20" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,154 +7311,154 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="n">
-        <v>5217</v>
+        <v>5308</v>
       </c>
       <c r="F42" s="18" t="n">
-        <v>5308</v>
+        <v>4345</v>
       </c>
       <c r="G42" s="18" t="n">
-        <v>4345</v>
+        <v>5318</v>
       </c>
       <c r="H42" s="18" t="n">
-        <v>5318</v>
+        <v>5010</v>
       </c>
       <c r="I42" s="18" t="n">
-        <v>5010</v>
+        <v>4662</v>
       </c>
       <c r="J42" s="18" t="n">
-        <v>4662</v>
+        <v>4829</v>
       </c>
       <c r="K42" s="18" t="n">
-        <v>4829</v>
+        <v>5134</v>
       </c>
       <c r="L42" s="18" t="n">
-        <v>5134</v>
+        <v>4688</v>
       </c>
       <c r="M42" s="18" t="n">
-        <v>4688</v>
+        <v>4656</v>
       </c>
       <c r="N42" s="18" t="n">
-        <v>4656</v>
+        <v>4824</v>
       </c>
       <c r="O42" s="18" t="n">
-        <v>4824</v>
+        <v>4965</v>
       </c>
       <c r="P42" s="18" t="n">
-        <v>4965</v>
+        <v>5208</v>
       </c>
       <c r="Q42" s="18" t="n">
-        <v>5208</v>
+        <v>4429</v>
       </c>
       <c r="R42" s="18" t="n">
-        <v>4429</v>
+        <v>2493</v>
       </c>
       <c r="S42" s="18" t="n">
-        <v>2493</v>
+        <v>4614</v>
       </c>
       <c r="T42" s="18" t="n">
-        <v>4614</v>
+        <v>4304</v>
       </c>
       <c r="U42" s="18" t="n">
-        <v>4304</v>
+        <v>5088</v>
       </c>
       <c r="V42" s="18" t="n">
-        <v>5088</v>
+        <v>5181</v>
       </c>
       <c r="W42" s="18" t="n">
-        <v>5181</v>
+        <v>6630</v>
       </c>
       <c r="X42" s="18" t="n">
-        <v>6630</v>
+        <v>6692</v>
       </c>
       <c r="Y42" s="18" t="n">
-        <v>6692</v>
+        <v>6615</v>
       </c>
       <c r="Z42" s="18" t="n">
-        <v>6615</v>
+        <v>5122</v>
       </c>
       <c r="AA42" s="18" t="n">
-        <v>5122</v>
+        <v>5575</v>
       </c>
       <c r="AB42" s="18" t="n">
-        <v>5575</v>
+        <v>5427</v>
       </c>
       <c r="AC42" s="18" t="n">
-        <v>5427</v>
+        <v>6071</v>
       </c>
       <c r="AD42" s="18" t="n">
-        <v>6071</v>
+        <v>4651</v>
       </c>
       <c r="AE42" s="18" t="n">
-        <v>4651</v>
+        <v>6645</v>
       </c>
       <c r="AF42" s="18" t="n">
-        <v>6645</v>
+        <v>4047</v>
       </c>
       <c r="AG42" s="18" t="n">
-        <v>4047</v>
+        <v>4233</v>
       </c>
       <c r="AH42" s="18" t="n">
-        <v>4233</v>
+        <v>5248</v>
       </c>
       <c r="AI42" s="18" t="n">
-        <v>5248</v>
+        <v>5439</v>
       </c>
       <c r="AJ42" s="18" t="n">
-        <v>5439</v>
+        <v>5718</v>
       </c>
       <c r="AK42" s="18" t="n">
-        <v>5718</v>
+        <v>6610</v>
       </c>
       <c r="AL42" s="18" t="n">
-        <v>6610</v>
+        <v>4711</v>
       </c>
       <c r="AM42" s="18" t="n">
-        <v>4711</v>
+        <v>5457</v>
       </c>
       <c r="AN42" s="18" t="n">
-        <v>5457</v>
+        <v>5781</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>5781</v>
+        <v>4424</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>4424</v>
+        <v>6193</v>
       </c>
       <c r="AQ42" s="18" t="n">
-        <v>6193</v>
+        <v>6623</v>
       </c>
       <c r="AR42" s="18" t="n">
-        <v>6623</v>
+        <v>5835</v>
       </c>
       <c r="AS42" s="18" t="n">
-        <v>5835</v>
+        <v>6789</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>6789</v>
+        <v>6115</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>6115</v>
+        <v>6241</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>6241</v>
+        <v>5204</v>
       </c>
       <c r="AW42" s="18" t="n">
-        <v>5204</v>
+        <v>5472</v>
       </c>
       <c r="AX42" s="18" t="n">
-        <v>5472</v>
+        <v>5572</v>
       </c>
       <c r="AY42" s="18" t="n">
-        <v>5572</v>
+        <v>5148</v>
       </c>
       <c r="AZ42" s="18" t="n">
-        <v>5148</v>
+        <v>6770</v>
       </c>
       <c r="BA42" s="18" t="n">
-        <v>6770</v>
+        <v>5412</v>
       </c>
       <c r="BB42" s="18" t="n">
-        <v>5412</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,22 +7904,22 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="n">
-        <v>3926</v>
+        <v>296</v>
       </c>
       <c r="F49" s="13" t="n">
-        <v>296</v>
+        <v>1523</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>1523</v>
+        <v>16457</v>
       </c>
       <c r="H49" s="13" t="n">
-        <v>16457</v>
+        <v>0</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J49" s="13" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="K49" s="13" t="n">
         <v>0</v>
@@ -7928,16 +7928,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="13" t="n">
-        <v>0</v>
+        <v>25275</v>
       </c>
       <c r="N49" s="13" t="n">
-        <v>25275</v>
+        <v>28310</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>28310</v>
+        <v>8452</v>
       </c>
       <c r="P49" s="13" t="n">
-        <v>8452</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="13" t="n">
         <v>0</v>
@@ -7952,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="13" t="n">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="W49" s="13" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="13" t="n">
         <v>0</v>
@@ -8000,19 +8000,19 @@
         <v>0</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>0</v>
+        <v>199757</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>199757</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="13" t="n">
         <v>0</v>
@@ -8038,14 +8038,14 @@
       <c r="AW49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX49" s="13" t="n">
-        <v>0</v>
+      <c r="AX49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ49" s="13" t="s">
-        <v>57</v>
+      <c r="AZ49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA49" s="13" t="n">
         <v>0</v>
@@ -8063,154 +8063,154 @@
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="n">
-        <v>136027</v>
+        <v>143353</v>
       </c>
       <c r="F50" s="16" t="n">
-        <v>143353</v>
+        <v>96060</v>
       </c>
       <c r="G50" s="16" t="n">
-        <v>96060</v>
+        <v>164556</v>
       </c>
       <c r="H50" s="16" t="n">
-        <v>164556</v>
+        <v>186885</v>
       </c>
       <c r="I50" s="16" t="n">
-        <v>186885</v>
+        <v>91208</v>
       </c>
       <c r="J50" s="16" t="n">
-        <v>91208</v>
+        <v>49298</v>
       </c>
       <c r="K50" s="16" t="n">
-        <v>49298</v>
+        <v>39787</v>
       </c>
       <c r="L50" s="16" t="n">
-        <v>39787</v>
+        <v>24900</v>
       </c>
       <c r="M50" s="16" t="n">
-        <v>24900</v>
+        <v>0</v>
       </c>
       <c r="N50" s="16" t="n">
-        <v>0</v>
+        <v>29188</v>
       </c>
       <c r="O50" s="16" t="n">
-        <v>29188</v>
+        <v>27288</v>
       </c>
       <c r="P50" s="16" t="n">
-        <v>27288</v>
+        <v>80316</v>
       </c>
       <c r="Q50" s="16" t="n">
-        <v>80316</v>
+        <v>42679</v>
       </c>
       <c r="R50" s="16" t="n">
-        <v>42679</v>
+        <v>35760</v>
       </c>
       <c r="S50" s="16" t="n">
-        <v>35760</v>
+        <v>52517</v>
       </c>
       <c r="T50" s="16" t="n">
-        <v>52517</v>
+        <v>121817</v>
       </c>
       <c r="U50" s="16" t="n">
-        <v>121817</v>
+        <v>104345</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>104345</v>
+        <v>134669</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>134669</v>
+        <v>133125</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>133125</v>
+        <v>166201</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>166201</v>
+        <v>60528</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>60528</v>
+        <v>5121</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>5121</v>
+        <v>10189</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>10189</v>
+        <v>98708</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>98708</v>
+        <v>60388</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>60388</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>0</v>
+        <v>96951</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>96951</v>
+        <v>90812</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>90812</v>
+        <v>59006</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>59006</v>
+        <v>206963</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>206963</v>
+        <v>106692</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>106692</v>
+        <v>98682</v>
       </c>
       <c r="AK50" s="16" t="n">
-        <v>98682</v>
+        <v>159909</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>159909</v>
+        <v>125110</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>125110</v>
+        <v>132518</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>132518</v>
+        <v>287900</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>287900</v>
+        <v>389698</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>389698</v>
+        <v>781590</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>781590</v>
+        <v>690849</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>690849</v>
+        <v>274518</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>274518</v>
+        <v>520310</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>520310</v>
+        <v>559973</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>559973</v>
+        <v>526489</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>526489</v>
+        <v>477996</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>477996</v>
+        <v>1255210</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>1255210</v>
+        <v>243870</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>243870</v>
+        <v>395828</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>395828</v>
+        <v>498284</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>498284</v>
+        <v>288191</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>288191</v>
+        <v>627647</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8222,154 +8222,154 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="n">
-        <v>60713</v>
+        <v>60099</v>
       </c>
       <c r="F51" s="13" t="n">
-        <v>60099</v>
+        <v>54474</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>54474</v>
+        <v>62257</v>
       </c>
       <c r="H51" s="13" t="n">
-        <v>62257</v>
+        <v>50230</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>50230</v>
+        <v>38445</v>
       </c>
       <c r="J51" s="13" t="n">
-        <v>38445</v>
+        <v>38229</v>
       </c>
       <c r="K51" s="13" t="n">
-        <v>38229</v>
+        <v>73746</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>73746</v>
+        <v>75646</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>75646</v>
+        <v>70248</v>
       </c>
       <c r="N51" s="13" t="n">
-        <v>70248</v>
+        <v>70444</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>70444</v>
+        <v>80539</v>
       </c>
       <c r="P51" s="13" t="n">
-        <v>80539</v>
+        <v>83738</v>
       </c>
       <c r="Q51" s="13" t="n">
-        <v>83738</v>
+        <v>76876</v>
       </c>
       <c r="R51" s="13" t="n">
-        <v>76876</v>
+        <v>45557</v>
       </c>
       <c r="S51" s="13" t="n">
-        <v>45557</v>
+        <v>93906</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>93906</v>
+        <v>86455</v>
       </c>
       <c r="U51" s="13" t="n">
-        <v>86455</v>
+        <v>137902</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>137902</v>
+        <v>155322</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>155322</v>
+        <v>168558</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>168558</v>
+        <v>122042</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>122042</v>
+        <v>202481</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>202481</v>
+        <v>163551</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>163551</v>
+        <v>213713</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>213713</v>
+        <v>212679</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>212679</v>
+        <v>232674</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>232674</v>
+        <v>204790</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>204790</v>
+        <v>307721</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>307721</v>
+        <v>105197</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>105197</v>
+        <v>151255</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>151255</v>
+        <v>170126</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>170126</v>
+        <v>295356</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>295356</v>
+        <v>214004</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>214004</v>
+        <v>294174</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>294174</v>
+        <v>241444</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>241444</v>
+        <v>321408</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>321408</v>
+        <v>299626</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>299626</v>
+        <v>295148</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>295148</v>
+        <v>368233</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>368233</v>
+        <v>317606</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>317606</v>
+        <v>324768</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>324768</v>
+        <v>421493</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>421493</v>
+        <v>412729</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>412729</v>
+        <v>333044</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>333044</v>
+        <v>277622</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>277622</v>
+        <v>275288</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>275288</v>
+        <v>264431</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>264431</v>
+        <v>273300</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>273300</v>
+        <v>307220</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>307220</v>
+        <v>274838</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>274838</v>
+        <v>285730</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,154 +8381,154 @@
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16" t="n">
-        <v>124772</v>
+        <v>130485</v>
       </c>
       <c r="F52" s="16" t="n">
-        <v>130485</v>
+        <v>130149</v>
       </c>
       <c r="G52" s="16" t="n">
-        <v>130149</v>
+        <v>127705</v>
       </c>
       <c r="H52" s="16" t="n">
-        <v>127705</v>
+        <v>143859</v>
       </c>
       <c r="I52" s="16" t="n">
-        <v>143859</v>
+        <v>256908</v>
       </c>
       <c r="J52" s="16" t="n">
-        <v>256908</v>
+        <v>298854</v>
       </c>
       <c r="K52" s="16" t="n">
-        <v>298854</v>
+        <v>277936</v>
       </c>
       <c r="L52" s="16" t="n">
-        <v>277936</v>
+        <v>219371</v>
       </c>
       <c r="M52" s="16" t="n">
-        <v>219371</v>
+        <v>215456</v>
       </c>
       <c r="N52" s="16" t="n">
-        <v>215456</v>
+        <v>189832</v>
       </c>
       <c r="O52" s="16" t="n">
-        <v>189832</v>
+        <v>206401</v>
       </c>
       <c r="P52" s="16" t="n">
-        <v>206401</v>
+        <v>162139</v>
       </c>
       <c r="Q52" s="16" t="n">
-        <v>162139</v>
+        <v>172158</v>
       </c>
       <c r="R52" s="16" t="n">
-        <v>172158</v>
+        <v>89763</v>
       </c>
       <c r="S52" s="16" t="n">
-        <v>89763</v>
+        <v>163941</v>
       </c>
       <c r="T52" s="16" t="n">
-        <v>163941</v>
+        <v>101489</v>
       </c>
       <c r="U52" s="16" t="n">
-        <v>101489</v>
+        <v>200867</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>200867</v>
+        <v>162443</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>162443</v>
+        <v>393808</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>393808</v>
+        <v>471418</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>471418</v>
+        <v>528385</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>528385</v>
+        <v>530816</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>530816</v>
+        <v>583823</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>583823</v>
+        <v>459613</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>459613</v>
+        <v>470628</v>
       </c>
       <c r="AD52" s="16" t="n">
-        <v>470628</v>
+        <v>331045</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>331045</v>
+        <v>647345</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>647345</v>
+        <v>507154</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>507154</v>
+        <v>509569</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>509569</v>
+        <v>375311</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>375311</v>
+        <v>480315</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>480315</v>
+        <v>546638</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>546638</v>
+        <v>523412</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>523412</v>
+        <v>401219</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>401219</v>
+        <v>473999</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>473999</v>
+        <v>259769</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>259769</v>
+        <v>15362</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>15362</v>
+        <v>3800</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>3800</v>
+        <v>133557</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>133557</v>
+        <v>421555</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>421555</v>
+        <v>147801</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>147801</v>
+        <v>105154</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>105154</v>
+        <v>74107</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>74107</v>
+        <v>4880</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>4880</v>
+        <v>189712</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>189712</v>
+        <v>627112</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>627112</v>
+        <v>317721</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>317721</v>
+        <v>313739</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>313739</v>
+        <v>156141</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>156141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8611,83 +8611,83 @@
       <c r="AB53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC53" s="13" t="s">
-        <v>57</v>
+      <c r="AC53" s="13" t="n">
+        <v>82164</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>82164</v>
+        <v>217132</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>217132</v>
+        <v>106240</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>106240</v>
+        <v>3985</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>3985</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>0</v>
+        <v>62885</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>62885</v>
+        <v>12846</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>12846</v>
+        <v>55555</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>55555</v>
+        <v>157315</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>157315</v>
+        <v>80442</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>80442</v>
+        <v>73747</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>73747</v>
+        <v>231362</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>231362</v>
+        <v>92364</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>92364</v>
+        <v>7279</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>7279</v>
+        <v>65114</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>65114</v>
+        <v>294629</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>294629</v>
+        <v>232052</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>232052</v>
+        <v>107985</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>107985</v>
+        <v>380590</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>380590</v>
+        <v>300538</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>300538</v>
+        <v>277738</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>277738</v>
+        <v>34741</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>34741</v>
+        <v>41997</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>41997</v>
+        <v>293761</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>293761</v>
+        <v>395817</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>395817</v>
+        <v>182610</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,11 +8713,11 @@
       <c r="I54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J54" s="16" t="s">
-        <v>57</v>
+      <c r="J54" s="16" t="n">
+        <v>6298</v>
       </c>
       <c r="K54" s="16" t="n">
-        <v>6298</v>
+        <v>0</v>
       </c>
       <c r="L54" s="16" t="n">
         <v>0</v>
@@ -8725,17 +8725,17 @@
       <c r="M54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="16" t="n">
-        <v>0</v>
+      <c r="N54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P54" s="16" t="s">
-        <v>57</v>
+      <c r="P54" s="16" t="n">
+        <v>4891</v>
       </c>
       <c r="Q54" s="16" t="n">
-        <v>4891</v>
+        <v>0</v>
       </c>
       <c r="R54" s="16" t="n">
         <v>0</v>
@@ -8759,13 +8759,13 @@
         <v>0</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>17340</v>
+        <v>12400</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="16" t="n">
         <v>0</v>
@@ -8833,8 +8833,8 @@
       <c r="AW54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX54" s="16" t="n">
-        <v>0</v>
+      <c r="AX54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY54" s="16" t="s">
         <v>57</v>
@@ -8977,8 +8977,8 @@
       <c r="Y56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z56" s="13" t="s">
-        <v>57</v>
+      <c r="Z56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA56" s="13" t="n">
         <v>0</v>
@@ -9013,8 +9013,8 @@
       <c r="AK56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" s="13" t="n">
-        <v>0</v>
+      <c r="AL56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM56" s="13" t="s">
         <v>57</v>
@@ -9136,8 +9136,8 @@
       <c r="Y57" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Z57" s="18" t="s">
-        <v>57</v>
+      <c r="Z57" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AA57" s="21" t="n">
         <v>0</v>
@@ -9361,11 +9361,11 @@
       <c r="AB59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC59" s="13" t="s">
-        <v>57</v>
+      <c r="AC59" s="13" t="n">
+        <v>-441</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="13" t="n">
         <v>0</v>
@@ -9388,8 +9388,8 @@
       <c r="AK59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL59" s="13" t="n">
-        <v>0</v>
+      <c r="AL59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM59" s="13" t="s">
         <v>57</v>
@@ -9397,17 +9397,17 @@
       <c r="AN59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO59" s="13" t="s">
-        <v>57</v>
+      <c r="AO59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP59" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="13" t="n">
         <v>0</v>
@@ -9424,8 +9424,8 @@
       <c r="AW59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX59" s="13" t="n">
-        <v>0</v>
+      <c r="AX59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY59" s="13" t="s">
         <v>57</v>
@@ -9538,17 +9538,17 @@
       <c r="AH60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AI60" s="16" t="s">
-        <v>57</v>
+      <c r="AI60" s="16" t="n">
+        <v>-5212</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>-5212</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" s="16" t="n">
-        <v>0</v>
+      <c r="AL60" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM60" s="16" t="s">
         <v>57</v>
@@ -9574,17 +9574,17 @@
       <c r="AT60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AU60" s="16" t="s">
-        <v>57</v>
+      <c r="AU60" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV60" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX60" s="16" t="n">
         <v>-6083</v>
+      </c>
+      <c r="AX60" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY60" s="16" t="s">
         <v>57</v>
@@ -9703,11 +9703,11 @@
       <c r="AJ61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL61" s="13" t="n">
-        <v>0</v>
+      <c r="AK61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM61" s="13" t="s">
         <v>57</v>
@@ -9721,8 +9721,8 @@
       <c r="AP61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ61" s="13" t="s">
-        <v>57</v>
+      <c r="AQ61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR61" s="13" t="n">
         <v>0</v>
@@ -9733,8 +9733,8 @@
       <c r="AT61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU61" s="13" t="n">
-        <v>0</v>
+      <c r="AU61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV61" s="13" t="s">
         <v>57</v>
@@ -9898,23 +9898,23 @@
       <c r="AV62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AW62" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX62" s="16" t="n">
+      <c r="AW62" s="16" t="n">
         <v>-1934</v>
       </c>
+      <c r="AX62" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AY62" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AZ62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA62" s="16" t="s">
-        <v>57</v>
+      <c r="BA62" s="16" t="n">
+        <v>-8574</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>-8574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9988,8 +9988,8 @@
       <c r="Y63" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Z63" s="20" t="s">
-        <v>57</v>
+      <c r="Z63" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AA63" s="22" t="n">
         <v>0</v>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="22" t="n">
-        <v>0</v>
+        <v>-441</v>
       </c>
       <c r="AD63" s="22" t="n">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="22" t="n">
         <v>0</v>
@@ -10016,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="AI63" s="22" t="n">
-        <v>0</v>
+        <v>-5212</v>
       </c>
       <c r="AJ63" s="22" t="n">
-        <v>-5212</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="22" t="n">
         <v>0</v>
@@ -10040,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="22" t="n">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AR63" s="22" t="n">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="22" t="n">
         <v>0</v>
@@ -10058,10 +10058,10 @@
         <v>0</v>
       </c>
       <c r="AW63" s="22" t="n">
-        <v>0</v>
+        <v>-8017</v>
       </c>
       <c r="AX63" s="22" t="n">
-        <v>-8017</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="22" t="n">
         <v>0</v>
@@ -10070,10 +10070,10 @@
         <v>0</v>
       </c>
       <c r="BA63" s="22" t="n">
-        <v>0</v>
+        <v>-8574</v>
       </c>
       <c r="BB63" s="22" t="n">
-        <v>-8574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,8 +10204,8 @@
       <c r="Y65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z65" s="13" t="s">
-        <v>57</v>
+      <c r="Z65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA65" s="13" t="n">
         <v>0</v>
@@ -10299,154 +10299,154 @@
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21" t="n">
-        <v>325438</v>
+        <v>334233</v>
       </c>
       <c r="F66" s="21" t="n">
-        <v>334233</v>
+        <v>282206</v>
       </c>
       <c r="G66" s="21" t="n">
-        <v>282206</v>
+        <v>370975</v>
       </c>
       <c r="H66" s="21" t="n">
-        <v>370975</v>
+        <v>380974</v>
       </c>
       <c r="I66" s="21" t="n">
-        <v>380974</v>
+        <v>386736</v>
       </c>
       <c r="J66" s="21" t="n">
-        <v>386736</v>
+        <v>392679</v>
       </c>
       <c r="K66" s="21" t="n">
-        <v>392679</v>
+        <v>391469</v>
       </c>
       <c r="L66" s="21" t="n">
-        <v>391469</v>
+        <v>319917</v>
       </c>
       <c r="M66" s="21" t="n">
-        <v>319917</v>
+        <v>310979</v>
       </c>
       <c r="N66" s="21" t="n">
-        <v>310979</v>
+        <v>317774</v>
       </c>
       <c r="O66" s="21" t="n">
-        <v>317774</v>
+        <v>322680</v>
       </c>
       <c r="P66" s="21" t="n">
-        <v>322680</v>
+        <v>331084</v>
       </c>
       <c r="Q66" s="21" t="n">
-        <v>331084</v>
+        <v>291713</v>
       </c>
       <c r="R66" s="21" t="n">
-        <v>291713</v>
+        <v>171080</v>
       </c>
       <c r="S66" s="21" t="n">
-        <v>171080</v>
+        <v>310364</v>
       </c>
       <c r="T66" s="21" t="n">
-        <v>310364</v>
+        <v>309761</v>
       </c>
       <c r="U66" s="21" t="n">
-        <v>309761</v>
+        <v>443905</v>
       </c>
       <c r="V66" s="21" t="n">
-        <v>443905</v>
+        <v>452434</v>
       </c>
       <c r="W66" s="21" t="n">
-        <v>452434</v>
+        <v>695491</v>
       </c>
       <c r="X66" s="21" t="n">
-        <v>695491</v>
+        <v>759661</v>
       </c>
       <c r="Y66" s="21" t="n">
-        <v>759661</v>
+        <v>808734</v>
       </c>
       <c r="Z66" s="21" t="n">
-        <v>808734</v>
+        <v>712449</v>
       </c>
       <c r="AA66" s="21" t="n">
-        <v>712449</v>
+        <v>807725</v>
       </c>
       <c r="AB66" s="21" t="n">
-        <v>807725</v>
+        <v>771000</v>
       </c>
       <c r="AC66" s="21" t="n">
-        <v>771000</v>
+        <v>845413</v>
       </c>
       <c r="AD66" s="21" t="n">
-        <v>845413</v>
+        <v>752967</v>
       </c>
       <c r="AE66" s="21" t="n">
-        <v>752967</v>
+        <v>1158257</v>
       </c>
       <c r="AF66" s="21" t="n">
-        <v>1158257</v>
+        <v>707148</v>
       </c>
       <c r="AG66" s="21" t="n">
-        <v>707148</v>
+        <v>719830</v>
       </c>
       <c r="AH66" s="21" t="n">
-        <v>719830</v>
+        <v>815285</v>
       </c>
       <c r="AI66" s="21" t="n">
-        <v>815285</v>
+        <v>889997</v>
       </c>
       <c r="AJ66" s="21" t="n">
-        <v>889997</v>
+        <v>914879</v>
       </c>
       <c r="AK66" s="21" t="n">
-        <v>914879</v>
+        <v>1334567</v>
       </c>
       <c r="AL66" s="21" t="n">
-        <v>1334567</v>
+        <v>848215</v>
       </c>
       <c r="AM66" s="21" t="n">
-        <v>848215</v>
+        <v>1001672</v>
       </c>
       <c r="AN66" s="21" t="n">
-        <v>1001672</v>
+        <v>1105657</v>
       </c>
       <c r="AO66" s="21" t="n">
-        <v>1105657</v>
+        <v>792572</v>
       </c>
       <c r="AP66" s="21" t="n">
-        <v>792572</v>
+        <v>1160902</v>
       </c>
       <c r="AQ66" s="21" t="n">
-        <v>1160902</v>
+        <v>1196061</v>
       </c>
       <c r="AR66" s="21" t="n">
-        <v>1196061</v>
+        <v>1315470</v>
       </c>
       <c r="AS66" s="21" t="n">
-        <v>1315470</v>
+        <v>1321656</v>
       </c>
       <c r="AT66" s="21" t="n">
-        <v>1321656</v>
+        <v>1185841</v>
       </c>
       <c r="AU66" s="21" t="n">
-        <v>1185841</v>
+        <v>1314230</v>
       </c>
       <c r="AV66" s="21" t="n">
-        <v>1314230</v>
+        <v>1061036</v>
       </c>
       <c r="AW66" s="21" t="n">
-        <v>1061036</v>
+        <v>1989931</v>
       </c>
       <c r="AX66" s="21" t="n">
-        <v>1989931</v>
+        <v>1170154</v>
       </c>
       <c r="AY66" s="21" t="n">
-        <v>1170154</v>
+        <v>1028846</v>
       </c>
       <c r="AZ66" s="21" t="n">
-        <v>1028846</v>
+        <v>1413004</v>
       </c>
       <c r="BA66" s="21" t="n">
-        <v>1413004</v>
+        <v>1106413</v>
       </c>
       <c r="BB66" s="21" t="n">
-        <v>1106413</v>
+        <v>1095987</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10892,22 +10892,22 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="n">
-        <v>63322581</v>
+        <v>59200000</v>
       </c>
       <c r="F73" s="13" t="n">
-        <v>59200000</v>
+        <v>60920000</v>
       </c>
       <c r="G73" s="13" t="n">
-        <v>60920000</v>
+        <v>65047431</v>
       </c>
       <c r="H73" s="13" t="n">
-        <v>65047431</v>
+        <v>0</v>
       </c>
       <c r="I73" s="13" t="n">
-        <v>0</v>
+        <v>87500000</v>
       </c>
       <c r="J73" s="13" t="n">
-        <v>87500000</v>
+        <v>0</v>
       </c>
       <c r="K73" s="13" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="M73" s="13" t="n">
-        <v>0</v>
+        <v>73473837</v>
       </c>
       <c r="N73" s="13" t="n">
-        <v>73473837</v>
+        <v>73532468</v>
       </c>
       <c r="O73" s="13" t="n">
-        <v>73532468</v>
+        <v>73495652</v>
       </c>
       <c r="P73" s="13" t="n">
-        <v>73495652</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="13" t="n">
         <v>0</v>
@@ -10940,10 +10940,10 @@
         <v>0</v>
       </c>
       <c r="U73" s="13" t="n">
-        <v>0</v>
+        <v>98875000</v>
       </c>
       <c r="V73" s="13" t="n">
-        <v>98875000</v>
+        <v>0</v>
       </c>
       <c r="W73" s="13" t="n">
         <v>0</v>
@@ -10955,11 +10955,11 @@
         <v>0</v>
       </c>
       <c r="Z73" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="13" t="n">
         <v>112200000</v>
       </c>
+      <c r="AA73" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB73" s="13" t="s">
         <v>57</v>
       </c>
@@ -10996,11 +10996,11 @@
       <c r="AM73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO73" s="13" t="n">
+      <c r="AN73" s="13" t="n">
         <v>1500000000</v>
+      </c>
+      <c r="AO73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP73" s="13" t="s">
         <v>57</v>
@@ -11051,154 +11051,154 @@
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="n">
-        <v>69119411</v>
+        <v>69319632</v>
       </c>
       <c r="F74" s="16" t="n">
-        <v>69319632</v>
+        <v>69608696</v>
       </c>
       <c r="G74" s="16" t="n">
-        <v>69608696</v>
+        <v>80310395</v>
       </c>
       <c r="H74" s="16" t="n">
-        <v>80310395</v>
+        <v>84639946</v>
       </c>
       <c r="I74" s="16" t="n">
-        <v>84639946</v>
+        <v>92879837</v>
       </c>
       <c r="J74" s="16" t="n">
-        <v>92879837</v>
+        <v>94080153</v>
       </c>
       <c r="K74" s="16" t="n">
-        <v>94080153</v>
+        <v>85933045</v>
       </c>
       <c r="L74" s="16" t="n">
-        <v>85933045</v>
+        <v>77812500</v>
       </c>
       <c r="M74" s="16" t="n">
-        <v>77812500</v>
+        <v>0</v>
       </c>
       <c r="N74" s="16" t="n">
-        <v>0</v>
+        <v>84358382</v>
       </c>
       <c r="O74" s="16" t="n">
-        <v>84358382</v>
+        <v>77084746</v>
       </c>
       <c r="P74" s="16" t="n">
-        <v>77084746</v>
+        <v>71582888</v>
       </c>
       <c r="Q74" s="16" t="n">
-        <v>71582888</v>
+        <v>71609060</v>
       </c>
       <c r="R74" s="16" t="n">
-        <v>71609060</v>
+        <v>74811715</v>
       </c>
       <c r="S74" s="16" t="n">
-        <v>74811715</v>
+        <v>78383582</v>
       </c>
       <c r="T74" s="16" t="n">
-        <v>78383582</v>
+        <v>75568859</v>
       </c>
       <c r="U74" s="16" t="n">
-        <v>75568859</v>
+        <v>97155493</v>
       </c>
       <c r="V74" s="16" t="n">
-        <v>97155493</v>
+        <v>88656353</v>
       </c>
       <c r="W74" s="16" t="n">
-        <v>88656353</v>
+        <v>97598974</v>
       </c>
       <c r="X74" s="16" t="n">
-        <v>97598974</v>
+        <v>100000602</v>
       </c>
       <c r="Y74" s="16" t="n">
-        <v>100000602</v>
+        <v>100046281</v>
       </c>
       <c r="Z74" s="16" t="n">
-        <v>100046281</v>
+        <v>104510204</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>104510204</v>
+        <v>110750000</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>110750000</v>
+        <v>125263959</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>125263959</v>
-      </c>
-      <c r="AD74" s="16" t="n">
         <v>105943860</v>
       </c>
-      <c r="AE74" s="16" t="s">
-        <v>57</v>
+      <c r="AD74" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE74" s="16" t="n">
+        <v>125259690</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>125259690</v>
+        <v>147661789</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>147661789</v>
+        <v>126894624</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>126894624</v>
+        <v>140123900</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>140123900</v>
+        <v>151551136</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>151551136</v>
+        <v>144695015</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>144695015</v>
+        <v>159113433</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>159113433</v>
+        <v>138090508</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>138090508</v>
+        <v>176690667</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>176690667</v>
+        <v>186102133</v>
       </c>
       <c r="AO74" s="16" t="n">
-        <v>186102133</v>
+        <v>193111001</v>
       </c>
       <c r="AP74" s="16" t="n">
-        <v>193111001</v>
+        <v>202641950</v>
       </c>
       <c r="AQ74" s="16" t="n">
-        <v>202641950</v>
+        <v>179581232</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>179581232</v>
+        <v>217353919</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>217353919</v>
+        <v>172459397</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>172459397</v>
+        <v>194908806</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>194908806</v>
+        <v>216306081</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>216306081</v>
+        <v>218462523</v>
       </c>
       <c r="AW74" s="16" t="n">
-        <v>218462523</v>
+        <v>728925668</v>
       </c>
       <c r="AX74" s="16" t="n">
-        <v>728925668</v>
+        <v>204588926</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>204588926</v>
+        <v>197617574</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>197617574</v>
+        <v>214223560</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>214223560</v>
+        <v>207930014</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>207930014</v>
+        <v>246813606</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,154 +11210,154 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="n">
-        <v>34772623</v>
+        <v>34900697</v>
       </c>
       <c r="F75" s="13" t="n">
-        <v>34900697</v>
+        <v>38120364</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>38120364</v>
+        <v>38171061</v>
       </c>
       <c r="H75" s="13" t="n">
-        <v>38171061</v>
+        <v>38638462</v>
       </c>
       <c r="I75" s="13" t="n">
-        <v>38638462</v>
+        <v>38560682</v>
       </c>
       <c r="J75" s="13" t="n">
-        <v>38560682</v>
+        <v>41328649</v>
       </c>
       <c r="K75" s="13" t="n">
-        <v>41328649</v>
+        <v>49460765</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>49460765</v>
+        <v>40539121</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>40539121</v>
+        <v>37767742</v>
       </c>
       <c r="N75" s="13" t="n">
-        <v>37767742</v>
+        <v>36594286</v>
       </c>
       <c r="O75" s="13" t="n">
-        <v>36594286</v>
+        <v>37599907</v>
       </c>
       <c r="P75" s="13" t="n">
-        <v>37599907</v>
+        <v>39221546</v>
       </c>
       <c r="Q75" s="13" t="n">
-        <v>39221546</v>
+        <v>38865521</v>
       </c>
       <c r="R75" s="13" t="n">
-        <v>38865521</v>
+        <v>43553537</v>
       </c>
       <c r="S75" s="13" t="n">
-        <v>43553537</v>
+        <v>46281912</v>
       </c>
       <c r="T75" s="13" t="n">
-        <v>46281912</v>
+        <v>53565675</v>
       </c>
       <c r="U75" s="13" t="n">
-        <v>53565675</v>
+        <v>61508475</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>61508475</v>
+        <v>66862678</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>66862678</v>
+        <v>73864154</v>
       </c>
       <c r="X75" s="13" t="n">
-        <v>73864154</v>
+        <v>75991283</v>
       </c>
       <c r="Y75" s="13" t="n">
-        <v>75991283</v>
+        <v>94972326</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>94972326</v>
+        <v>110135354</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>110135354</v>
+        <v>114162927</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>114162927</v>
+        <v>121184615</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>121184615</v>
+        <v>125701783</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>125701783</v>
+        <v>131023672</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>131023672</v>
+        <v>153095025</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>153095025</v>
+        <v>154701471</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>154701471</v>
+        <v>135290698</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>135290698</v>
+        <v>120656738</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>120656738</v>
+        <v>117344458</v>
       </c>
       <c r="AJ75" s="13" t="n">
-        <v>117344458</v>
+        <v>115303879</v>
       </c>
       <c r="AK75" s="13" t="n">
-        <v>115303879</v>
+        <v>121962687</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>121962687</v>
+        <v>140865811</v>
       </c>
       <c r="AM75" s="13" t="n">
-        <v>140865811</v>
+        <v>136247563</v>
       </c>
       <c r="AN75" s="13" t="n">
-        <v>136247563</v>
+        <v>145732490</v>
       </c>
       <c r="AO75" s="13" t="n">
-        <v>145732490</v>
+        <v>152926425</v>
       </c>
       <c r="AP75" s="13" t="n">
-        <v>152926425</v>
+        <v>160730249</v>
       </c>
       <c r="AQ75" s="13" t="n">
-        <v>160730249</v>
+        <v>163209661</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>163209661</v>
+        <v>167925543</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>167925543</v>
+        <v>169751510</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>169751510</v>
+        <v>173488441</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>173488441</v>
+        <v>172293844</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>172293844</v>
+        <v>169178550</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>169178550</v>
+        <v>155442123</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>155442123</v>
+        <v>158722089</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>158722089</v>
+        <v>157340242</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>157340242</v>
+        <v>157548718</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>157548718</v>
+        <v>158043703</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>158043703</v>
+        <v>162254401</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11369,154 +11369,154 @@
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="n">
-        <v>86587092</v>
+        <v>86242564</v>
       </c>
       <c r="F76" s="16" t="n">
-        <v>86242564</v>
+        <v>86134348</v>
       </c>
       <c r="G76" s="16" t="n">
-        <v>86134348</v>
+        <v>92205776</v>
       </c>
       <c r="H76" s="16" t="n">
-        <v>92205776</v>
+        <v>95778296</v>
       </c>
       <c r="I76" s="16" t="n">
-        <v>95778296</v>
+        <v>95825438</v>
       </c>
       <c r="J76" s="16" t="n">
-        <v>95825438</v>
+        <v>91114024</v>
       </c>
       <c r="K76" s="16" t="n">
-        <v>91114024</v>
+        <v>87401258</v>
       </c>
       <c r="L76" s="16" t="n">
-        <v>87401258</v>
+        <v>87678257</v>
       </c>
       <c r="M76" s="16" t="n">
-        <v>87678257</v>
+        <v>87869494</v>
       </c>
       <c r="N76" s="16" t="n">
-        <v>87869494</v>
+        <v>87560886</v>
       </c>
       <c r="O76" s="16" t="n">
-        <v>87560886</v>
+        <v>87680969</v>
       </c>
       <c r="P76" s="16" t="n">
-        <v>87680969</v>
+        <v>87595354</v>
       </c>
       <c r="Q76" s="16" t="n">
-        <v>87595354</v>
+        <v>92807547</v>
       </c>
       <c r="R76" s="16" t="n">
-        <v>92807547</v>
+        <v>92634675</v>
       </c>
       <c r="S76" s="16" t="n">
-        <v>92634675</v>
+        <v>85608877</v>
       </c>
       <c r="T76" s="16" t="n">
-        <v>85608877</v>
+        <v>94145640</v>
       </c>
       <c r="U76" s="16" t="n">
-        <v>94145640</v>
+        <v>113870181</v>
       </c>
       <c r="V76" s="16" t="n">
-        <v>113870181</v>
+        <v>121316654</v>
       </c>
       <c r="W76" s="16" t="n">
-        <v>121316654</v>
+        <v>131973190</v>
       </c>
       <c r="X76" s="16" t="n">
-        <v>131973190</v>
+        <v>137680491</v>
       </c>
       <c r="Y76" s="16" t="n">
-        <v>137680491</v>
+        <v>147676076</v>
       </c>
       <c r="Z76" s="16" t="n">
-        <v>147676076</v>
+        <v>156906887</v>
       </c>
       <c r="AA76" s="16" t="n">
-        <v>156906887</v>
+        <v>161679036</v>
       </c>
       <c r="AB76" s="16" t="n">
-        <v>161679036</v>
+        <v>159366505</v>
       </c>
       <c r="AC76" s="16" t="n">
-        <v>159366505</v>
+        <v>151132948</v>
       </c>
       <c r="AD76" s="16" t="n">
-        <v>151132948</v>
+        <v>186294316</v>
       </c>
       <c r="AE76" s="16" t="n">
-        <v>186294316</v>
+        <v>195927663</v>
       </c>
       <c r="AF76" s="16" t="n">
-        <v>195927663</v>
+        <v>185770696</v>
       </c>
       <c r="AG76" s="16" t="n">
-        <v>185770696</v>
+        <v>192290189</v>
       </c>
       <c r="AH76" s="16" t="n">
-        <v>192290189</v>
+        <v>185247285</v>
       </c>
       <c r="AI76" s="16" t="n">
-        <v>185247285</v>
+        <v>219021888</v>
       </c>
       <c r="AJ76" s="16" t="n">
-        <v>219021888</v>
+        <v>190002781</v>
       </c>
       <c r="AK76" s="16" t="n">
-        <v>190002781</v>
+        <v>225511417</v>
       </c>
       <c r="AL76" s="16" t="n">
-        <v>225511417</v>
+        <v>236847107</v>
       </c>
       <c r="AM76" s="16" t="n">
-        <v>236847107</v>
+        <v>237474449</v>
       </c>
       <c r="AN76" s="16" t="n">
-        <v>237474449</v>
+        <v>239197974</v>
       </c>
       <c r="AO76" s="16" t="n">
-        <v>239197974</v>
+        <v>232757576</v>
       </c>
       <c r="AP76" s="16" t="n">
-        <v>232757576</v>
+        <v>237500000</v>
       </c>
       <c r="AQ76" s="16" t="n">
-        <v>237500000</v>
+        <v>206106481</v>
       </c>
       <c r="AR76" s="16" t="n">
-        <v>206106481</v>
+        <v>256732643</v>
       </c>
       <c r="AS76" s="16" t="n">
-        <v>256732643</v>
+        <v>279396975</v>
       </c>
       <c r="AT76" s="16" t="n">
-        <v>279396975</v>
+        <v>224688034</v>
       </c>
       <c r="AU76" s="16" t="n">
-        <v>224688034</v>
+        <v>239054839</v>
       </c>
       <c r="AV76" s="16" t="n">
-        <v>239054839</v>
+        <v>195200000</v>
       </c>
       <c r="AW76" s="16" t="n">
-        <v>195200000</v>
+        <v>264960894</v>
       </c>
       <c r="AX76" s="16" t="n">
-        <v>264960894</v>
+        <v>246700236</v>
       </c>
       <c r="AY76" s="16" t="n">
-        <v>246700236</v>
+        <v>258730456</v>
       </c>
       <c r="AZ76" s="16" t="n">
-        <v>258730456</v>
+        <v>255072358</v>
       </c>
       <c r="BA76" s="16" t="n">
-        <v>255072358</v>
-      </c>
-      <c r="BB76" s="16" t="n">
         <v>268745267</v>
+      </c>
+      <c r="BB76" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11599,83 +11599,83 @@
       <c r="AB77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC77" s="13" t="s">
-        <v>57</v>
+      <c r="AC77" s="13" t="n">
+        <v>152155556</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>152155556</v>
+        <v>165623188</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>165623188</v>
+        <v>190736086</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>190736086</v>
-      </c>
-      <c r="AG77" s="13" t="n">
         <v>181136364</v>
       </c>
-      <c r="AH77" s="13" t="s">
-        <v>57</v>
+      <c r="AG77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH77" s="13" t="n">
+        <v>187716418</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>187716418</v>
+        <v>186173913</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>186173913</v>
+        <v>183349835</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>183349835</v>
+        <v>192787990</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>192787990</v>
+        <v>202624685</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>202624685</v>
+        <v>209508523</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>209508523</v>
+        <v>215420857</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>215420857</v>
+        <v>225278049</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>225278049</v>
+        <v>251000000</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>251000000</v>
+        <v>288115044</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>288115044</v>
+        <v>295812249</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>295812249</v>
+        <v>305331579</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>305331579</v>
+        <v>273379747</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>273379747</v>
+        <v>243343990</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>243343990</v>
+        <v>222620741</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>222620741</v>
+        <v>212337920</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>212337920</v>
+        <v>201982558</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>201982558</v>
+        <v>233316667</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>233316667</v>
+        <v>232405854</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>232405854</v>
+        <v>226310463</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>226310463</v>
+        <v>235322165</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11701,11 +11701,11 @@
       <c r="I78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J78" s="16" t="s">
-        <v>57</v>
+      <c r="J78" s="16" t="n">
+        <v>62980000</v>
       </c>
       <c r="K78" s="16" t="n">
-        <v>62980000</v>
+        <v>0</v>
       </c>
       <c r="L78" s="16" t="n">
         <v>0</v>
@@ -11713,17 +11713,17 @@
       <c r="M78" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="16" t="n">
-        <v>0</v>
+      <c r="N78" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P78" s="16" t="s">
-        <v>57</v>
+      <c r="P78" s="16" t="n">
+        <v>48910000</v>
       </c>
       <c r="Q78" s="16" t="n">
-        <v>48910000</v>
+        <v>0</v>
       </c>
       <c r="R78" s="16" t="n">
         <v>0</v>
@@ -11747,13 +11747,13 @@
         <v>0</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>0</v>
+        <v>57800000</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>57800000</v>
-      </c>
-      <c r="AA78" s="16" t="n">
         <v>62000000</v>
+      </c>
+      <c r="AA78" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AB78" s="16" t="s">
         <v>57</v>
@@ -11965,8 +11965,8 @@
       <c r="Y80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z80" s="13" t="s">
-        <v>57</v>
+      <c r="Z80" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA80" s="13" t="n">
         <v>0</v>
@@ -12001,8 +12001,8 @@
       <c r="AK80" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL80" s="13" t="n">
-        <v>0</v>
+      <c r="AL80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM80" s="13" t="s">
         <v>57</v>
